--- a/Restaurant_Location_Dataset.xlsx
+++ b/Restaurant_Location_Dataset.xlsx
@@ -463,3838 +463,4694 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/kfc-sta-cruz-delivery/2-CYUZC8BTGJ51GJ</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14.59996822233639</v>
-      </c>
-      <c r="D2" t="n">
-        <v>120.98002192</v>
+          <t>https://food.grab.com/ph/en/restaurant/chowking-paterno-delivery/2-CYMHN7KBGB4VJN</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>14.5994997</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>120.98417191111112</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>McDonald's - Governor Forbes</t>
+          <t>Dimsum Treats - Dapitan [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/greenwich-morayta-delivery/2-CYKTRUDUNNVAFE</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14.605052</v>
-      </c>
-      <c r="D3" t="n">
-        <v>120.988034</v>
+          <t>https://food.grab.com/ph/en/restaurant/kfc-good-earth-delivery/2-CYU3LAJUVJM1AN</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>14.599339283333334</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>120.98126608333332</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KFC - P Campa</t>
+          <t>CoCo Fresh Tea &amp; Juice - GrabKitchen (Sampaloc) [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/starbucks-pacific-center-binondo-available-for-long-distance-delivery-delivery/2-CY42TKKBTU4DA2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14.598539382003</v>
-      </c>
-      <c r="D4" t="n">
-        <v>120.9756623916414</v>
+          <t>https://food.grab.com/ph/en/restaurant/jollibee-raon-delivery/2-CZC1EZEYACBTCX</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>14.600723</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>120.984396</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chowking - Tayuman</t>
+          <t>24 Chicken - Petron Apo [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/angel-s-pizza-legarda-available-for-long-distance-delivery-delivery/PHGFSTI000000zw</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14.59926291862256</v>
-      </c>
-      <c r="D5" t="n">
-        <v>120.9900343411054</v>
+          <t>https://food.grab.com/ph/en/restaurant/andok-s-dine-in-quiapo-delivery/2-CYTCLAX2RFEYEJ</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>14.6017109</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>120.9850132</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/boodle-inasal-sampaloc-available-for-long-distance-delivery-delivery/2-C2J3BF3DSA2YRX</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>14.607157</v>
-      </c>
-      <c r="D6" t="n">
-        <v>120.987687</v>
+          <t>https://food.grab.com/ph/en/restaurant/bonchon-legarda-available-for-long-distance-delivery-delivery/PHGFSTI000004jb</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14.5997547</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>120.9904516</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/coffee-army-sampaloc-available-for-long-distance-delivery-delivery/2-C3MYFETFRZAAVE</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>14.60594708</v>
-      </c>
-      <c r="D7" t="n">
-        <v>120.9912717</v>
+          <t>https://food.grab.com/ph/en/restaurant/starbucks-i-tower-p-noval-delivery/2-CY42TKKBVPJJT2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>14.607214122737872</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>120.98886850526878</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/minute-burger-gastambide-available-for-long-distance-delivery-delivery/2-CZKCBFBFRLCUTN</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>14.6025839</v>
-      </c>
-      <c r="D8" t="n">
-        <v>120.9904756</v>
+          <t>https://food.grab.com/ph/en/restaurant/sukiya-sm-manila-available-for-long-distance-delivery-delivery/2-C3NYE6AVG8CARE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14.590312</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>120.983149</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/supreme-wings-sampaloc-available-for-long-distance-delivery-delivery/2-CZNTDF6TMAE2CJ</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>14.6007482</v>
-      </c>
-      <c r="D9" t="n">
-        <v>120.9912594</v>
+          <t>https://food.grab.com/ph/en/restaurant/boodle-inasal-sampaloc-available-for-long-distance-delivery-delivery/2-C2J3BF3DSA2YRX</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>14.607157</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>120.987687</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>McDonald's - Sta Cruz Church</t>
+          <t>McDonald's - Good Earth</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/poldo-s-steakhouse-sampaloc-available-for-long-distance-delivery-delivery/2-C35UJ3D3CK3KKE</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>14.60765796</v>
-      </c>
-      <c r="D10" t="n">
-        <v>120.9861031</v>
+          <t>https://food.grab.com/ph/en/restaurant/hot-star-large-fried-chicken-laperal-available-for-long-distance-delivery-delivery/PHGFSTI000000tp</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>14.6009775</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>120.9899533</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jollibee - Galaxy Avenida Tower</t>
+          <t>24 Chicken - Espana [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/sausage-supreme-sampaloc-available-for-long-distance-delivery-delivery/2-CZNTDBLDT8DJRA</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>14.6008</v>
-      </c>
-      <c r="D11" t="n">
-        <v>120.991116</v>
+          <t>https://food.grab.com/ph/en/restaurant/andok-s-carriedo-delivery/2-CYTCLA2DWCNFT6</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>14.5990063</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>120.9814594</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>KFC - Sta Cruz</t>
+          <t>Chowking - Paterno</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/crazy-chops-sampaloc-available-for-long-distance-delivery-delivery/2-CZMVEKT3CCBJJN</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>14.6007979</v>
-      </c>
-      <c r="D12" t="n">
-        <v>120.9911282</v>
+          <t>https://food.grab.com/ph/en/restaurant/turks-shoppers-binondo-available-for-long-distance-delivery-delivery/2-C3XAJXJVGRJJNA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>14.60065788</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>120.9755842</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Greenwich - Morayta</t>
+          <t>KFC - Good Earth</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/katsunori-food-hall-sta-cruz-available-for-long-distance-delivery-delivery/2-C36KHGCVGNKXAT</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>14.606502</v>
-      </c>
-      <c r="D13" t="n">
-        <v>120.981819</v>
+          <t>https://food.grab.com/ph/en/restaurant/paotsin-good-earth-plaza-mall-available-for-long-distance-delivery-delivery/2-C3EHAJVXLCBVVN</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>14.59980821</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>120.9811871</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Starbucks - Pacific Center Binondo [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Jollibee - Raon</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/kaimasu-university-belt-available-for-long-distance-delivery-delivery/2-C4BAJNCTLE22EA</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>14.60258279</v>
-      </c>
-      <c r="D14" t="n">
-        <v>120.99045269</v>
+          <t>https://food.grab.com/ph/en/restaurant/mang-inasal-quezon-boulevard-delivery/2-CZJTNVL3RUTAG6</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>14.6007871</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>120.9844008</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Angel's Pizza - Legarda [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Andok's Dine-In - Quiapo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/bo-s-coffee-espana-available-for-long-distance-delivery-delivery/2-CZNFWE3UCTVJNE</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>14.6062743</v>
-      </c>
-      <c r="D15" t="n">
-        <v>120.9890109</v>
+          <t>https://food.grab.com/ph/en/restaurant/s-r-new-york-style-pizza-sm-manila-delivery/AWj-WS3KfYWaYaQC48h5</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>14.5901269</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>120.98368076666667</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Boodle Inasal - Sampaloc [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>BonChon - Legarda [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/halina-hotel-restaurant-rizal-avenue-delivery/2-C2TYV2AJJBMUGX</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>14.60159426528787</v>
-      </c>
-      <c r="D16" t="n">
-        <v>120.9814454232799</v>
+          <t>https://food.grab.com/ph/en/restaurant/kyu-kyu-ramen-99-sm-manila-available-for-long-distance-delivery-delivery/2-C3AYE2VKAJWVJJ</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>14.5902886</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>120.9833111</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Coffee Army - Sampaloc [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Starbucks - I Tower P Noval</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/seafood-hauz-gastambide-available-for-long-distance-delivery-delivery/2-C2TYVEUVLRMKJN</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>14.6014</v>
-      </c>
-      <c r="D17" t="n">
-        <v>120.991008</v>
+          <t>https://food.grab.com/ph/en/restaurant/david-s-tea-house-sta-cruz-available-for-long-distance-delivery-delivery/PHGFSTI0000019k</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>14.60081561</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>120.9792872</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Minute Burger - Gastambide [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Sukiya - SM Manila [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/citystate-hotel-carlos-palanca-street-delivery/2-CY5HJJNJPBAKLJ</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>14.5981625</v>
-      </c>
-      <c r="D18" t="n">
-        <v>120.9820157</v>
+          <t>https://food.grab.com/ph/en/restaurant/angel-s-pizza-legarda-available-for-long-distance-delivery-delivery/PHGFSTI000000zw</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14.599262918622557</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>120.9900343411054</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Supreme Wings - Sampaloc [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Boodle Inasal - Sampaloc [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/vista-hotel-and-restaurant-recto-street-delivery/2-CY4YGT62L6A3V2</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>14.6038780625</v>
-      </c>
-      <c r="D19" t="n">
-        <v>120.9812034</v>
+          <t>https://food.grab.com/ph/en/restaurant/lola-nena-s-espana-boulevard-available-for-long-distance-delivery-delivery/2-CYX3ALEZHAAUHE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>14.60594795</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>120.9885574</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Poldo's Steakhouse - Sampaloc [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Hot Star Large Fried Chicken - Laperal [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/midnight-coffee-ust-espa%C3%B1a-delivery/2-C36XLBCFA7XYCX</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>14.60773817</v>
-      </c>
-      <c r="D20" t="n">
-        <v>120.9873903</v>
+          <t>https://food.grab.com/ph/en/restaurant/tasty-dumplings-condesa-available-for-long-distance-delivery-delivery/2-C2MKTPBVAFW3RA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>14.600781</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>120.974841</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sausage Supreme - Sampaloc [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Andok's - Carriedo</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/fry-guys-quiapo-delivery/2-C3TYACCGLBNAFE</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>14.60046365</v>
-      </c>
-      <c r="D21" t="n">
-        <v>120.9885724</v>
+          <t>https://food.grab.com/ph/en/restaurant/greenwich-isetann-recto-delivery/2-CZD1JGLJABBVVA</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>14.602752</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>120.984799</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Crazy Chops - Sampaloc [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Turks - Shoppers Binondo [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/joni-s-pizza-pasta-and-grill-ubelt-manila-available-for-long-distance-delivery-delivery/2-C2VKFFJ3L6XZBE</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>14.6044</v>
-      </c>
-      <c r="D22" t="n">
-        <v>120.99042</v>
+          <t>https://food.grab.com/ph/en/restaurant/coco-fresh-tea-juice-youniversity-delivery/2-C3U1JPLAHA3WTT</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>14.6009454</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>120.9901214</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Katsunori Food Hall - Sta. Cruz [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Paotsin - Good Earth Plaza Mall [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/ali-and-pau-foodhouse-quiapo-delivery/2-C2AXL8KGA7XEUA</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>14.59992833333333</v>
-      </c>
-      <c r="D23" t="n">
-        <v>120.9882267</v>
+          <t>https://food.grab.com/ph/en/restaurant/fruitas-youniversity-suites-recto-available-for-long-distance-delivery-delivery/2-C35YLAXXCJCGEE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>14.60102784</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>120.9899367</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Kaimasu - University Belt [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Mang Inasal - Quezon Boulevard</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/24-7-food-hub-mix-and-match-sta-cruz-delivery/2-C4BEEECTE6D1UE</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>14.606543</v>
-      </c>
-      <c r="D24" t="n">
-        <v>120.981725</v>
+          <t>https://food.grab.com/ph/en/restaurant/potato-corner-isetann-recto-delivery/2-C3MZA2U2NKCVAE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>14.602955</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>120.984146</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Bo's Coffee - Espana [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>S&amp;R New York Style Pizza - SM Manila</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/chowking-paterno-delivery/2-CYMHN7KBGB4VJN</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>14.5994997</v>
-      </c>
-      <c r="D25" t="n">
-        <v>120.9841719111111</v>
+          <t>https://food.grab.com/ph/en/restaurant/chuan-kee-turo-turo-ongpin-street-available-for-long-distance-delivery-delivery/2-CZNFE361TKDVGX</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>14.60044895128205</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>120.9755047</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Halina Hotel &amp; Restaurant - Rizal Avenue</t>
+          <t>Kyu Kyu Ramen 99 - SM Manila [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/24-chicken-mendiola-available-for-long-distance-delivery-delivery/2-CZE2EK6UJ7EVPE</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>14.59999359388841</v>
-      </c>
-      <c r="D26" t="n">
-        <v>120.9906229630875</v>
+          <t>https://food.grab.com/ph/en/restaurant/mdm-food-house-sta-cruz-available-for-long-distance-delivery-delivery/2-C3CUREWECVJKE6</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>14.601355</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>120.976852</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Seafood Hauz - Gastambide [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>David's Tea House - Sta. Cruz [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/andok-s-dine-in-quiapo-delivery/2-CYTCLAX2RFEYEJ</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>14.6017109</v>
-      </c>
-      <c r="D27" t="n">
-        <v>120.9850132</v>
+          <t>https://food.grab.com/ph/en/restaurant/wai-ying-fastfood-binondo-available-for-long-distance-delivery-delivery/2-C2MFREUZN6WKLN</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>14.602069</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>120.975989</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Citystate Hotel - Carlos Palanca Street</t>
+          <t>Angel's Pizza - Legarda [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/bonchon-legarda-available-for-long-distance-delivery-delivery/PHGFSTI000004jb</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>14.5997547</v>
-      </c>
-      <c r="D28" t="n">
-        <v>120.9904516</v>
+          <t>https://food.grab.com/ph/en/restaurant/pizza-hut-cm-recto-available-for-long-distance-delivery-delivery/2-CYLCMEJHCNTCGJ</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>14.6022463</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>120.98692623157895</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Vista Hotel and Restaurant - Recto Street</t>
+          <t>Lola Nena's - Espana Boulevard [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/burger-matsing-legarda-available-for-long-distance-delivery-delivery/2-C22KFF6CGFL3G6</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>14.601068</v>
-      </c>
-      <c r="D29" t="n">
-        <v>120.991649</v>
+          <t>https://food.grab.com/ph/en/restaurant/supreme-wings-sampaloc-available-for-long-distance-delivery-delivery/2-CZNTDF6TMAE2CJ</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>14.6007482</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>120.9912594</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Midnight Coffee - UST España</t>
+          <t>Tasty Dumplings - Condesa [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/andok-s-carriedo-delivery/2-CYTCLA2DWCNFT6</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>14.5990063</v>
-      </c>
-      <c r="D30" t="n">
-        <v>120.9814594</v>
+          <t>https://food.grab.com/ph/en/restaurant/zagu-carriedo-delivery/2-C23KCYNANNDJNN</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>14.599014971754528</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>120.98156781349235</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fry Guys - Quiapo</t>
+          <t>Greenwich - Isetann Recto</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/hot-star-large-fried-chicken-laperal-available-for-long-distance-delivery-delivery/PHGFSTI000000tp</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>14.6009775</v>
-      </c>
-      <c r="D31" t="n">
-        <v>120.9899533</v>
+          <t>https://food.grab.com/ph/en/restaurant/coffee-army-sampaloc-available-for-long-distance-delivery-delivery/2-C3MYFETFRZAAVE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>14.60594708</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>120.9912717</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Joni's Pizza, Pasta and Grill - Ubelt Manila [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>CoCo Fresh Tea &amp; Juice - Youniversity</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/paotsin-victory-lacson-underpass-available-for-long-distance-delivery-delivery/2-C3JDLZMCRJWANE</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>14.5980502</v>
-      </c>
-      <c r="D32" t="n">
-        <v>120.9838609</v>
+          <t>https://food.grab.com/ph/en/restaurant/gang-gang-chicken-padre-campa-available-for-long-distance-delivery-delivery/2-C3V1GNVYTYTTLN</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>14.6077005</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>120.9864182</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Ali and Pau Foodhouse - Quiapo</t>
+          <t>Fruitas - Youniversity Suites Recto [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/papa-tapa-qq-mall-delivery/2-C4BVRACCVT6TFE</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>14.60220191</v>
-      </c>
-      <c r="D33" t="n">
-        <v>120.9836631</v>
+          <t>https://food.grab.com/ph/en/restaurant/minute-burger-gastambide-available-for-long-distance-delivery-delivery/2-CZKCBFBFRLCUTN</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>14.6025839</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>120.9904756</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>24/7 Food Hub - Mix and Match (Sta. Cruz)</t>
+          <t>Potato Corner - Isetann Recto</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/sukiya-sm-manila-available-for-long-distance-delivery-delivery/2-C3NYE6AVG8CARE</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>14.590312</v>
-      </c>
-      <c r="D34" t="n">
-        <v>120.983149</v>
+          <t>https://food.grab.com/ph/en/restaurant/king-sisig-isetann-recto-available-for-long-distance-delivery-delivery/2-CYMABFMXBF43CN</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>14.603071641666666</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>120.98418</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Chowking - Paterno</t>
+          <t>Chuan Kee Turo Turo - Ongpin Street [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/tropical-hut-hamburger-escolta-available-for-long-distance-delivery-delivery/2-CYVKSE5CLBNHGX</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>14.5972994</v>
-      </c>
-      <c r="D35" t="n">
-        <v>120.9780227</v>
+          <t>https://food.grab.com/ph/en/restaurant/ate-rica-s-bacsilog-shopper-s-mart-available-for-long-distance-delivery-delivery/2-CYTJJX2HGFA3PE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>14.600689</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>120.975685</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>24 Chicken - Mendiola [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>MDM Food House - Sta. Cruz [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/s-r-new-york-style-pizza-sm-manila-delivery/AWj-WS3KfYWaYaQC48h5</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>14.5901269</v>
-      </c>
-      <c r="D36" t="n">
-        <v>120.9836807666667</v>
+          <t>https://food.grab.com/ph/en/restaurant/red-ribbon-binondo-delivery/2-CYTWMEXGLZDTGX</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>14.5982956</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>120.9757438</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Andok's Dine-In - Quiapo</t>
+          <t>Wai Ying Fastfood - Binondo [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/kyu-kyu-ramen-99-sm-manila-available-for-long-distance-delivery-delivery/2-C3AYE2VKAJWVJJ</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>14.5902886</v>
-      </c>
-      <c r="D37" t="n">
-        <v>120.9833111</v>
+          <t>https://food.grab.com/ph/en/restaurant/master-siomai-siopao-leche-flan-sampaloc-manila-delivery/2-C3KHLT4GT4CVDE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>14.59888</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>120.98153</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BonChon - Legarda [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Pizza Hut - CM Recto [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/ate-rica-s-bacsilog-shopper-s-mart-available-for-long-distance-delivery-delivery/2-CYTJJX2HGFA3PE</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>14.600689</v>
-      </c>
-      <c r="D38" t="n">
-        <v>120.975685</v>
+          <t>https://food.grab.com/ph/en/restaurant/ling-nam-alonzo-available-for-long-distance-delivery-delivery/2-C22JWEMHC8CALX</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>14.6022232</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>120.9785885</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Burger Matsing - Legarda [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Supreme Wings - Sampaloc [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/coco-fresh-tea-juice-youniversity-delivery/2-C3U1JPLAHA3WTT</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>14.6009454</v>
-      </c>
-      <c r="D39" t="n">
-        <v>120.9901214</v>
+          <t>https://food.grab.com/ph/en/restaurant/go-bento-legarda-available-for-long-distance-delivery-delivery/2-C2WJJCA3G3ATNT</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>14.599924</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>120.990554</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Andok's - Carriedo</t>
+          <t>Zagu - Carriedo</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/turks-quiapo-available-for-long-distance-delivery-delivery/2-CYUJJNTDCZCXNX</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>14.5981151</v>
-      </c>
-      <c r="D40" t="n">
-        <v>120.9841068</v>
+          <t>https://food.grab.com/ph/en/restaurant/sincerity-cafe-restaurant-binondo-available-for-long-distance-delivery-delivery/2-CY2FBBU1R3KFLX</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>14.599068014727354</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>120.975219818386</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Hot Star Large Fried Chicken - Laperal [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Coffee Army - Sampaloc [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/farinas-ilocos-empanada-quiapo-available-for-long-distance-delivery-delivery/2-C2B1N8AYJTUJJE</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>14.600459</v>
-      </c>
-      <c r="D41" t="n">
-        <v>120.983485</v>
+          <t>https://food.grab.com/ph/en/restaurant/d-cream-coffee-tea-sampaloc-delivery/PHGFSTI000002ui</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>14.607065144444444</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>120.9890435</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Paotsin - Victory Lacson Underpass [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Gang Gang Chicken - Padre Campa [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/david-s-tea-house-sta-cruz-available-for-long-distance-delivery-delivery/PHGFSTI0000019k</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>14.60081561</v>
-      </c>
-      <c r="D42" t="n">
-        <v>120.9792872</v>
+          <t>https://food.grab.com/ph/en/restaurant/toribox-tower-manila-delivery/2-C2BANAUWAGNVEN</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>14.607301</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>120.988807</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Papa Tapa - QQ Mall</t>
+          <t>Minute Burger - Gastambide [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/master-siomai-siopao-leche-flan-sampaloc-manila-delivery/2-C3KHLT4GT4CVDE</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>14.59888</v>
-      </c>
-      <c r="D43" t="n">
-        <v>120.98153</v>
+          <t>https://food.grab.com/ph/en/restaurant/sausage-supreme-sampaloc-available-for-long-distance-delivery-delivery/2-CZNTDBLDT8DJRA</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>14.6008</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>120.991116</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sukiya - SM Manila [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>King Sisig - Isetann Recto [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/zagu-carriedo-delivery/2-C23KCYNANNDJNN</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>14.59901497175453</v>
-      </c>
-      <c r="D44" t="n">
-        <v>120.9815678134923</v>
+          <t>https://food.grab.com/ph/en/restaurant/sharetea-ongpin-delivery/2-C2LKETB1KADEV2</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>14.600090703165407</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>120.97508170221225</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Tropical Hut Hamburger - Escolta [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Ate Rica's Bacsilog - Shopper's Mart [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/pizza-hut-cm-recto-available-for-long-distance-delivery-delivery/2-CYLCMEJHCNTCGJ</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>14.6022463</v>
-      </c>
-      <c r="D45" t="n">
-        <v>120.9869262315789</v>
+          <t>https://food.grab.com/ph/en/restaurant/black-scoop-cafe-legarda-available-for-long-distance-delivery-delivery/2-CY22C6CCSADZG2</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>14.6000499</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>120.9906598</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S&amp;R New York Style Pizza - SM Manila</t>
+          <t>Red Ribbon - Binondo</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/tasty-dumplings-condesa-available-for-long-distance-delivery-delivery/2-C2MKTPBVAFW3RA</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>14.600781</v>
-      </c>
-      <c r="D46" t="n">
-        <v>120.974841</v>
+          <t>https://food.grab.com/ph/en/restaurant/bulalo-world-isetann-recto-available-for-long-distance-delivery-delivery/2-CYMAEFJXNUX1SE</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>14.60283715</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>120.9843469</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Kyu Kyu Ramen 99 - SM Manila [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Master Siomai, Siopao &amp; Leche Flan - Sampaloc Manila</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/chuan-kee-turo-turo-ongpin-street-available-for-long-distance-delivery-delivery/2-CZNFE361TKDVGX</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>14.60044895128205</v>
-      </c>
-      <c r="D47" t="n">
-        <v>120.9755047</v>
+          <t>https://food.grab.com/ph/en/restaurant/golden-fortune-seafood-restaurant-binondo-available-for-long-distance-delivery-delivery/PHGFSTI000001cl</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>14.603557</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>120.97757</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ate Rica's Bacsilog - Shopper's Mart [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Ling Nam - Alonzo [Available for LONG DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/kowloon-house-quiapo-available-for-long-distance-delivery-delivery/2-C3LHKB3JE7XJNX</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>14.59984597</v>
-      </c>
-      <c r="D48" t="n">
-        <v>120.9845705</v>
+          <t>https://food.grab.com/ph/en/restaurant/the-thai-plate-fugoso-street-available-for-long-distance-delivery-delivery/2-C3JTJRJJNAL1VJ</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>14.60788036</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>120.9819664</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CoCo Fresh Tea &amp; Juice - Youniversity</t>
+          <t>Go Bento - Legarda [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/fruitas-youniversity-suites-recto-available-for-long-distance-delivery-delivery/2-C35YLAXXCJCGEE</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>14.60102784</v>
-      </c>
-      <c r="D49" t="n">
-        <v>120.9899367</v>
+          <t>https://food.grab.com/ph/en/restaurant/shawarma-shack-st-thomas-square-espana-boulevard-available-for-long-distance-delivery-delivery/2-C2UJAE53EN6HHE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>14.60554</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>120.988713</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Turks - Quiapo [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Sincerity Cafe &amp; Restaurant - Binondo [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/sharetea-ongpin-delivery/2-C2LKETB1KADEV2</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>14.60009070316541</v>
-      </c>
-      <c r="D50" t="n">
-        <v>120.9750817022123</v>
+          <t>https://food.grab.com/ph/en/restaurant/mr-ube-rice-and-noodle-haus-ongpin-street-available-for-long-distance-delivery-delivery/PHGFSTI000001p9</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>14.600840155867786</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>120.97590531485673</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Farinas Ilocos Empanada - Quiapo [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>D'Cream Coffee &amp; Tea - Sampaloc</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/red-ribbon-binondo-delivery/2-CYTWMEXGLZDTGX</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>14.5982956</v>
-      </c>
-      <c r="D51" t="n">
-        <v>120.9757438</v>
+          <t>https://food.grab.com/ph/en/restaurant/poldo-s-steakhouse-sampaloc-available-for-long-distance-delivery-delivery/2-C35UJ3D3CK3KKE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>14.60765796</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>120.9861031</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>David's Tea House - Sta. Cruz [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Toribox - Tower Manila</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/king-sisig-isetann-recto-available-for-long-distance-delivery-delivery/2-CYMABFMXBF43CN</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>14.60307164166667</v>
-      </c>
-      <c r="D52" t="n">
-        <v>120.98418</v>
+          <t>https://food.grab.com/ph/en/restaurant/dadudz-unli-wings-st-thomas-square-available-for-long-distance-delivery-delivery/2-C23ZNBUFGADZTN</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>14.60562305</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>120.988576</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Master Siomai, Siopao &amp; Leche Flan - Sampaloc Manila</t>
+          <t>Sausage Supreme - Sampaloc [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/potato-corner-good-earth-plaza-delivery/2-CZBAC2TVVCDXVN</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>14.59971786</v>
-      </c>
-      <c r="D53" t="n">
-        <v>120.981339</v>
+          <t>https://food.grab.com/ph/en/restaurant/yi-fang-taiwan-fruit-tea-%E4%B8%80%E8%8A%B3%E5%8F%B0%E7%81%A3%E6%B0%B4%E6%9E%9C%E8%8C%B6-binondo-available-for-long-distance-delivery-delivery/2-CYTJJB21TEM3BA</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>14.598788</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>120.975457</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Zagu - Carriedo</t>
+          <t>Sharetea - Ongpin</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/golden-fortune-seafood-restaurant-binondo-available-for-long-distance-delivery-delivery/PHGFSTI000001cl</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>14.603557</v>
-      </c>
-      <c r="D54" t="n">
-        <v>120.97757</v>
+          <t>https://food.grab.com/ph/en/restaurant/kumpapis-muralla-st-manila-delivery/2-C3VHRNWBWFMGBE</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>14.59386863</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>120.9764155</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Pizza Hut - CM Recto [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Black Scoop Cafe - Legarda [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/toribox-tower-manila-delivery/2-C2BANAUWAGNVEN</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>14.607301</v>
-      </c>
-      <c r="D55" t="n">
-        <v>120.988807</v>
+          <t>https://food.grab.com/ph/en/restaurant/the-aristocrat-restaurant-sm-manila-available-for-long-distance-delivery-delivery/2-C2LGNT4HGCCBEN</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>14.59033764</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>120.9837502</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Tasty Dumplings - Condesa [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Bulalo World - Isetann Recto [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/mdm-food-house-sta-cruz-available-for-long-distance-delivery-delivery/2-C3CUREWECVJKE6</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>14.601355</v>
-      </c>
-      <c r="D56" t="n">
-        <v>120.976852</v>
+          <t>https://food.grab.com/ph/en/restaurant/gong-cha-sm-manila-available-for-long-distance-delivery-delivery/2-C2KZC4NUKBAKUE</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>14.59035095</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>120.9837783</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Chuan Kee Turo Turo - Ongpin Street [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Golden Fortune Seafood Restaurant - Binondo [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/wai-ying-fastfood-binondo-available-for-long-distance-delivery-delivery/2-C2MFREUZN6WKLN</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>14.602069</v>
-      </c>
-      <c r="D57" t="n">
-        <v>120.975989</v>
+          <t>https://food.grab.com/ph/en/restaurant/the-great-buddha-cafe-ongpin-available-for-long-distance-delivery-delivery/2-CZBAACMYE6VTHE</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>14.600144125</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>120.9751577</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Kowloon House - Quiapo [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>The Thai Plate - Fugoso Street [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/black-scoop-cafe-legarda-available-for-long-distance-delivery-delivery/2-CY22C6CCSADZG2</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>14.6000499</v>
-      </c>
-      <c r="D58" t="n">
-        <v>120.9906598</v>
+          <t>https://food.grab.com/ph/en/restaurant/cafe-mezzanine-binondo-delivery/2-C2L2R22CVX6HAA</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>14.60042657</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>120.9755354</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Fruitas - Youniversity Suites Recto [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Shawarma Shack - St. Thomas Square Espana Boulevard [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/shawarma-shack-isetann-recto-delivery/2-CYXGAAETCFLVNX</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>14.60294579523632</v>
-      </c>
-      <c r="D59" t="n">
-        <v>120.9840936441795</v>
+          <t>https://food.grab.com/ph/en/restaurant/hong-kong-noodles-dimsum-house-quiapo-available-for-long-distance-delivery-delivery/PHGFSTI000001d8</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>14.59921805</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>120.9841343</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sharetea - Ongpin</t>
+          <t>Mr. Ube Rice and Noodle Haus - Ongpin Street [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/sincerity-cafe-restaurant-binondo-available-for-long-distance-delivery-delivery/2-CY2FBBU1R3KFLX</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>14.59906801472735</v>
-      </c>
-      <c r="D60" t="n">
-        <v>120.975219818386</v>
+          <t>https://food.grab.com/ph/en/restaurant/hai-pio-pares-bbq-carriedo-delivery/2-CZKULF3FEKKFBE</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>14.598816</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>120.982012</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Red Ribbon - Binondo</t>
+          <t>Poldo's Steakhouse - Sampaloc [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/oh-my-chicken-youniversity-suites-delivery/2-CYTKGTWXLBXUVA</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>14.60099948461538</v>
-      </c>
-      <c r="D61" t="n">
-        <v>120.99033345</v>
+          <t>https://food.grab.com/ph/en/restaurant/chops-to-go-sm-manila-delivery/2-CZBHAKAWAPAGGE</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>14.59029533</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>120.9822236</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>King Sisig - Isetann Recto [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Dadudz Unli Wings - St. Thomas Square [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/yi-fang-taiwan-fruit-tea-%E4%B8%80%E8%8A%B3%E5%8F%B0%E7%81%A3%E6%B0%B4%E6%9E%9C%E8%8C%B6-binondo-available-for-long-distance-delivery-delivery/2-CYTJJB21TEM3BA</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>14.598788</v>
-      </c>
-      <c r="D62" t="n">
-        <v>120.975457</v>
+          <t>https://food.grab.com/ph/en/restaurant/corner-pizza-sm-manila-available-for-long-distance-delivery-delivery/2-C2WCLK4VARLDUE</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>14.590311550202747</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>120.98234887288855</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Potato Corner - Good Earth Plaza</t>
+          <t>Yi Fang Taiwan Fruit Tea 一芳台灣水果茶 - Binondo [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/bulalo-world-isetann-recto-available-for-long-distance-delivery-delivery/2-CYMAEFJXNUX1SE</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>14.60283715</v>
-      </c>
-      <c r="D63" t="n">
-        <v>120.9843469</v>
+          <t>https://food.grab.com/ph/en/restaurant/hap-chan-tomas-mapua-available-for-long-distance-delivery-delivery/PHGFSTI000001ct</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>14.601413</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>120.97967</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Golden Fortune Seafood Restaurant - Binondo [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Kumpapis - Muralla St. Manila</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/dakasi-milktea-hotstar-recto-available-for-long-distance-delivery-delivery/2-CZAYN2CKKAJTGJ</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>14.600982475</v>
-      </c>
-      <c r="D64" t="n">
-        <v>120.9899579</v>
+          <t>https://food.grab.com/ph/en/restaurant/cafe-de-soledad-gastambide-st-delivery/2-C2U2EXCFHGJATA</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>14.6019746</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>120.9906221</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Toribox - Tower Manila</t>
+          <t>The Aristocrat Restaurant - SM Manila [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/ling-nam-alonzo-available-for-long-distance-delivery-delivery/2-C22JWEMHC8CALX</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>14.6022232</v>
-      </c>
-      <c r="D65" t="n">
-        <v>120.9785885</v>
+          <t>https://food.grab.com/ph/en/restaurant/tim-hortons-ceu-delivery/2-CZAHEABBVN3JRE</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>14.599783433333334</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>120.9915111</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MDM Food House - Sta. Cruz [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Gong Cha - SM Manila [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/hai-pio-pares-bbq-carriedo-delivery/2-CZKULF3FEKKFBE</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>14.598816</v>
-      </c>
-      <c r="D66" t="n">
-        <v>120.982012</v>
+          <t>https://food.grab.com/ph/en/restaurant/fudo-san-sta-cruz-delivery/2-CZAZLB2BFAXHAT</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>14.599638</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>120.981279</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Wai Ying Fastfood - Binondo [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>The Great Buddha Cafe - Ongpin [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/quickly-shoppers-mart-available-for-long-distance-delivery-delivery/2-C2NZNPLTLPJDDE</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>14.6005857</v>
-      </c>
-      <c r="D67" t="n">
-        <v>120.97566</v>
+          <t>https://food.grab.com/ph/en/restaurant/hen-lin-sm-manila-delivery/2-C35CSECUJKECNE</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>14.59028406</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>120.9822651</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Black Scoop Cafe - Legarda [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Cafe Mezzanine - Binondo</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/goldilocks-good-earth-carriedo-bakeshop-delivery/2-CZMACCEBL3DDUE</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>14.5994472</v>
-      </c>
-      <c r="D68" t="n">
-        <v>120.9812578</v>
+          <t>https://food.grab.com/ph/en/restaurant/oh-my-chicken-youniversity-suites-delivery/2-CYTKGTWXLBXUVA</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>14.600999484615384</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>120.99033345000001</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Shawarma Shack - Isetann Recto</t>
+          <t>Hong Kong Noodles &amp; Dimsum House - Quiapo [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/cafe-de-soledad-gastambide-st-delivery/2-C2U2EXCFHGJATA</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>14.6019746</v>
-      </c>
-      <c r="D69" t="n">
-        <v>120.9906221</v>
+          <t>https://food.grab.com/ph/en/restaurant/grillhouse-by-bms-recto-manila-available-for-long-distance-delivery-delivery/2-C343ENC1RA31DE</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>14.6009677</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>120.9900593</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sincerity Cafe &amp; Restaurant - Binondo [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Hai Pio Pares + Bbq - Carriedo</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/go-bento-legarda-available-for-long-distance-delivery-delivery/2-C2WJJCA3G3ATNT</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>14.599924</v>
-      </c>
-      <c r="D70" t="n">
-        <v>120.990554</v>
+          <t>https://food.grab.com/ph/en/restaurant/goldilocks-isetann-recto-bakeshop-delivery/2-CZMACCEBJGDGCX</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>14.6026551</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>120.98473408</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Oh My Chicken! - Youniversity Suites</t>
+          <t>Chops To Go - SM Manila</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/mr-ube-rice-and-noodle-haus-ongpin-street-available-for-long-distance-delivery-delivery/PHGFSTI000001p9</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>14.60084015586779</v>
-      </c>
-      <c r="D71" t="n">
-        <v>120.9759053148567</v>
+          <t>https://food.grab.com/ph/en/restaurant/crazy-chops-sampaloc-available-for-long-distance-delivery-delivery/2-CZMVEKT3CCBJJN</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>14.6007979</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>120.9911282</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Yi Fang Taiwan Fruit Tea 一芳台灣水果茶 - Binondo [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Corner Pizza - SM Manila [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/cafe-mezzanine-binondo-delivery/2-C2L2R22CVX6HAA</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>14.60042657</v>
-      </c>
-      <c r="D72" t="n">
-        <v>120.9755354</v>
+          <t>https://food.grab.com/ph/en/restaurant/uno-s-steaks-and-wine-macaraeg-building-manila-available-for-long-distance-delivery-delivery/2-C32YDBBGCGBTAX</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>14.6074655</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>120.98671</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Bulalo World - Isetann Recto [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Hap Chan - Tomas Mapua [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/d-cream-coffee-tea-gastambide-delivery/2-CYJ2NBDCN2VWLE</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>14.60253715945618</v>
-      </c>
-      <c r="D73" t="n">
-        <v>120.990464275</v>
+          <t>https://food.grab.com/ph/en/restaurant/dakasi-milktea-hotstar-recto-available-for-long-distance-delivery-delivery/2-CZAYN2CKKAJTGJ</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>14.600982475</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>120.9899579</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Dakasi Milktea - Hotstar Recto [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Cafe De Soledad - Gastambide St.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/the-aristocrat-restaurant-sm-manila-available-for-long-distance-delivery-delivery/2-C2LGNT4HGCCBEN</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>14.59033764</v>
-      </c>
-      <c r="D74" t="n">
-        <v>120.9837502</v>
+          <t>https://food.grab.com/ph/en/restaurant/chawadi-cup-ongpin-available-for-long-distance-delivery-delivery/2-CYXJNY4XHGDXDA</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>14.601409</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>120.97643</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Ling Nam - Alonzo [Available for LONG DISTANCE DELIVERY]</t>
+          <t>Tim Hortons - CEU</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/gong-cha-sm-manila-available-for-long-distance-delivery-delivery/2-C2KZC4NUKBAKUE</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>14.59035095</v>
-      </c>
-      <c r="D75" t="n">
-        <v>120.9837783</v>
+          <t>https://food.grab.com/ph/en/restaurant/soy-bean-jose-figueras-delivery/2-C25YJ2DWR6CHAN</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>14.60213</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>120.99287</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Hai Pio Pares + Bbq - Carriedo</t>
+          <t>Fudo-San - Sta. Cruz</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/dunkin-good-earth-delivery/2-CYWJVJJJAFMCJ6</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>14.5994736</v>
-      </c>
-      <c r="D76" t="n">
-        <v>120.98125222</v>
+          <t>https://food.grab.com/ph/en/restaurant/one-zo-tapioca-recto-available-for-long-distance-delivery-delivery/2-C2WXMEK1NRLJT2</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>14.600777</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>120.990337</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Quickly - Shoppers Mart [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Hen Lin - SM Manila</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/cafe-france-ongpin-street-available-for-long-distance-delivery-delivery/PHGFSTI0000016w</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>14.6005704</v>
-      </c>
-      <c r="D77" t="n">
-        <v>120.9756178</v>
+          <t>https://food.grab.com/ph/en/restaurant/brownies-unlimited-sm-manila-available-for-long-distance-delivery-delivery/2-C2XVRNTUSGCGLX</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>14.590633</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>120.982442</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Goldilocks - Good Earth Carriedo Bakeshop</t>
+          <t>Oh My Chicken! - Youniversity Suites</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/tim-hortons-ceu-delivery/2-CZAHEABBVN3JRE</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>14.59978343333333</v>
-      </c>
-      <c r="D78" t="n">
-        <v>120.9915111</v>
+          <t>https://food.grab.com/ph/en/restaurant/kaimasu-university-belt-available-for-long-distance-delivery-delivery/2-C4BAJNCTLE22EA</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>14.60258279</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>120.99045269</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Cafe De Soledad - Gastambide St.</t>
+          <t>GrillHouse by BMS - Recto Manila [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/yo-madi-yogurt-shake-binondo-manila-delivery/2-C2KTENU2GVJXBE</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>14.600276</v>
-      </c>
-      <c r="D79" t="n">
-        <v>120.975791</v>
+          <t>https://food.grab.com/ph/en/restaurant/hong-kong-style-noodles-and-dimsum-isetann-recto-delivery/2-C3UVAYCDV36JAT</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>14.603245</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>120.984503</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Go Bento - Legarda [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Goldilocks - Isetann Recto Bakeshop</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/the-great-buddha-cafe-ongpin-available-for-long-distance-delivery-delivery/2-CZBAACMYE6VTHE</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>14.600144125</v>
-      </c>
-      <c r="D80" t="n">
-        <v>120.9751577</v>
+          <t>https://food.grab.com/ph/en/restaurant/bon-appetea-escolta-delivery/2-C2JVWET1VFEZLE</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>14.5970308</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>120.9776465</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Mr. Ube Rice and Noodle Haus - Ongpin Street [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Crazy Chops - Sampaloc [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/hong-kong-noodles-dimsum-house-quiapo-available-for-long-distance-delivery-delivery/PHGFSTI000001d8</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>14.59921805</v>
-      </c>
-      <c r="D81" t="n">
-        <v>120.9841343</v>
+          <t>https://food.grab.com/ph/en/restaurant/juice-cubi-ue-recto-delivery/2-C2BVNUDCWE2BGJ</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>14.6006798</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>120.9904701</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Cafe Mezzanine - Binondo</t>
+          <t>Uno's Steaks and Wine - Macaraeg Building Manila [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/don-benito-s-quiapo-delivery/2-CY2EV76CAKN3EA</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>14.597695</v>
-      </c>
-      <c r="D82" t="n">
-        <v>120.9839091</v>
+          <t>https://food.grab.com/ph/en/restaurant/yo-madi-yogurt-shake-binondo-manila-delivery/2-C2KTENU2GVJXBE</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>14.600276</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>120.975791</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>D'Cream Coffee &amp; Tea - Gastambide</t>
+          <t>Dakasi Milktea - Hotstar Recto [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/the-thai-plate-fugoso-street-available-for-long-distance-delivery-delivery/2-C3JTJRJJNAL1VJ</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>14.60788036</v>
-      </c>
-      <c r="D83" t="n">
-        <v>120.9819664</v>
+          <t>https://food.grab.com/ph/en/restaurant/bo-s-coffee-espana-available-for-long-distance-delivery-delivery/2-CZNFWE3UCTVJNE</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>14.6062743</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>120.9890109</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>The Aristocrat Restaurant - SM Manila [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Chawadi Cup - Ongpin [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/hap-chan-tomas-mapua-available-for-long-distance-delivery-delivery/PHGFSTI000001ct</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>14.601413</v>
-      </c>
-      <c r="D84" t="n">
-        <v>120.97967</v>
+          <t>https://food.grab.com/ph/en/restaurant/balai-pandesal-jt-centrale-delivery/2-C3AYNLCBDBK3GJ</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>14.606922</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>120.983885</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Gong Cha - SM Manila [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Soy &amp; Bean - Jose Figueras</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/one-zo-tapioca-recto-available-for-long-distance-delivery-delivery/2-C2WXMEK1NRLJT2</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>14.600777</v>
-      </c>
-      <c r="D85" t="n">
-        <v>120.990337</v>
+          <t>https://food.grab.com/ph/en/restaurant/muhlach-ensaymada-isetann-recto-delivery/2-C3LVN26TTAKJG6</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>14.60329675</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>120.9838466</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Dunkin' - Good Earth</t>
+          <t>One Zo Tapioca - Recto [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/pancit-ng-taga-malabon-quiapo-available-for-long-distance-delivery-delivery/2-C2UGAEDFJYCDFA</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>14.5975467</v>
-      </c>
-      <c r="D86" t="n">
-        <v>120.9837582</v>
+          <t>https://food.grab.com/ph/en/restaurant/sip-chow-food-express-gastambide-street-delivery/2-CZMUG6BAJTKZE6</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>14.604441</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>120.990626</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Cafe France - Ongpin Street [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Brownies Unlimited - SM Manila [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/avocadoria-sm-manila-delivery/2-C36YLPU3ALLGCX</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>14.59030454</v>
-      </c>
-      <c r="D87" t="n">
-        <v>120.983721</v>
+          <t>https://food.grab.com/ph/en/restaurant/dunkin-doroteo-jose-delivery/2-CYWJVJJHUFUAGN</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>14.605235227272727</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>120.98199893731714</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Tim Hortons - CEU</t>
+          <t>Kaimasu - University Belt [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/chooks-to-go-legarda-street-manila-delivery/AWhenY1ckk5cOZVWu4Ya</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>14.600708</v>
-      </c>
-      <c r="D88" t="n">
-        <v>120.9913878</v>
+          <t>https://food.grab.com/ph/en/restaurant/pares-kimchi-mehan-garden-delivery/2-C2UWV6DZJ34ETT</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>14.591493865386227</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>120.98114533527132</t>
+        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Yo! Madi Yogurt Shake - Binondo Manila</t>
+          <t>Hong Kong Style Noodles and Dimsum - Isetann Recto</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/the-coffee-bean-tea-leaf-laperal-apartments-delivery/2-C2DJA223BEC2NE</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>14.60087365</v>
-      </c>
-      <c r="D89" t="n">
-        <v>120.9900855</v>
+          <t>https://food.grab.com/ph/en/restaurant/r-lapid-s-chicharon-barbecue-sm-manila-delivery/2-C333JGCWERLFT2</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>14.5903242</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>120.982393</t>
+        </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>The Great Buddha Cafe - Ongpin [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Bon Appetea - Escolta</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/r-lapid-s-chicharon-barbecue-sm-manila-delivery/2-C333JGCWERLFT2</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>14.5903242</v>
-      </c>
-      <c r="D90" t="n">
-        <v>120.982393</v>
+          <t>https://food.grab.com/ph/en/restaurant/better-boneless-gastambide-manila-delivery/2-C363V7VELE3UV2</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>14.60275287</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>120.9904445</t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Hong Kong Noodles &amp; Dimsum House - Quiapo [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Juice Cubi - UE Recto</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/uno-s-steaks-and-wine-macaraeg-building-manila-available-for-long-distance-delivery-delivery/2-C32YDBBGCGBTAX</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>14.6074655</v>
-      </c>
-      <c r="D91" t="n">
-        <v>120.98671</v>
+          <t>https://food.grab.com/ph/en/restaurant/president-grand-palace-resturant-binondo-available-for-long-distance-delivery-delivery/2-C2NXDB2GJJ5JET</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>14.601248</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>120.976369</t>
+        </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Don Benito's - Quiapo</t>
+          <t>Yo! Madi Yogurt Shake - Binondo Manila</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/better-boneless-gastambide-manila-delivery/2-C363V7VELE3UV2</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>14.60275287</v>
-      </c>
-      <c r="D92" t="n">
-        <v>120.9904445</v>
+          <t>https://food.grab.com/ph/en/restaurant/lord-stow-s-bakery-ongpin-available-for-long-distance-delivery-delivery/2-C2WBJPWDVBJJHE</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>14.601146882181197</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>120.97581781349015</t>
+        </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>The Thai Plate - Fugoso Street [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Bo's Coffee - Espana [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/lord-stow-s-bakery-ongpin-available-for-long-distance-delivery-delivery/2-C2WBJPWDVBJJHE</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>14.6011468821812</v>
-      </c>
-      <c r="D93" t="n">
-        <v>120.9758178134902</v>
+          <t>https://food.grab.com/ph/en/restaurant/cafe-aquatica-binondo-available-for-long-distance-delivery-delivery/PHGFSTI000003f9</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>14.6003466</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>120.9745674</t>
+        </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Hap Chan - Tomas Mapua [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Balai Pandesal - JT Centrale</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/awi-s-cafe-restaurant-yuchengco-street-delivery/2-CZA3E7VHNYWVAE</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>14.59946708</v>
-      </c>
-      <c r="D94" t="n">
-        <v>120.9762634</v>
+          <t>https://food.grab.com/ph/en/restaurant/butternut-bakery-sm-manila-available-for-long-distance-delivery-delivery/2-C3XZTVCAVPVEAN</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>14.590339</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>120.983648</t>
+        </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>One Zo Tapioca - Recto [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Muhlach Ensaymada - Isetann Recto</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/lola-nena-s-legarda-available-for-long-distance-delivery-delivery/2-CYWKAF4HRY4YKA</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>14.60058469763148</v>
-      </c>
-      <c r="D95" t="n">
-        <v>120.9915296604429</v>
+          <t>https://food.grab.com/ph/en/restaurant/rue-s-oven-sm-manila-available-for-long-distance-delivery-delivery/2-C3X3NJCDCGJ1NA</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>14.59029</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>120.982258</t>
+        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Pancit Ng Taga Malabon - Quiapo [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Sip &amp; Chow Food Express - Gastambide Street</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/mang-inasal-raon-delivery/2-CZJTNVL3RZE1JX</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>14.6005303</v>
-      </c>
-      <c r="D96" t="n">
-        <v>120.9835405783333</v>
+          <t>https://food.grab.com/ph/en/restaurant/coffee-project-espana-boulevard-delivery/2-CYV2KCM1RYUAPE</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>14.606211080000001</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>120.98912455</t>
+        </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Avocadoria - SM Manila</t>
+          <t>Dunkin' - Doroteo Jose</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/dimsum-treats-morayta-recto-delivery/2-C4BFPADKEZKYUA</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>14.60238754</v>
-      </c>
-      <c r="D97" t="n">
-        <v>120.9873186</v>
+          <t>https://food.grab.com/ph/en/restaurant/the-coffee-bean-tea-leaf-laperal-apartments-delivery/2-C2DJA223BEC2NE</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>14.60087365</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>120.9900855</t>
+        </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Chooks To Go - Legarda Street Manila</t>
+          <t>Pares Kimchi - Mehan Garden</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/gang-gang-chicken-mendiola-delivery/2-C4A2RAVUVBBUGE</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>14.60061149</v>
-      </c>
-      <c r="D98" t="n">
-        <v>120.9903144</v>
+          <t>https://food.grab.com/ph/en/restaurant/avocadoria-sm-manila-delivery/2-C36YLPU3ALLGCX</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>14.59030454</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>120.983721</t>
+        </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>The Coffee Bean &amp; Tea Leaf - Laperal Apartments</t>
+          <t>R.Lapid's Chicharon &amp; Barbecue - SM Manila</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/cala-cafe-university-tower-4-delivery/2-C3W2E2CEFFKKLT</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>14.6062605</v>
-      </c>
-      <c r="D99" t="n">
-        <v>120.9898449</v>
+          <t>https://food.grab.com/ph/en/restaurant/sun-cafe-manila-available-for-long-distance-delivery-delivery/2-C3XTBEVAARAVVE</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>14.60004985</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>120.9748967</t>
+        </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>R.Lapid's Chicharon &amp; Barbecue - SM Manila</t>
+          <t>Better Boneless - Gastambide Manila</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/t-cup-zone-morayta-available-for-long-distance-delivery-delivery/2-C4BTR4BZN6AJTJ</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>14.60369979</v>
-      </c>
-      <c r="D100" t="n">
-        <v>120.9882075</v>
+          <t>https://food.grab.com/ph/en/restaurant/basta-inihaw-recto-available-for-long-distance-delivery-delivery/2-C343BEWDRGDXAE</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>14.602205</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>120.987386</t>
+        </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Uno's Steaks and Wine - Macaraeg Building Manila [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>President Grand Palace Resturant - Binondo [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/bon-appetea-escolta-delivery/2-C2JVWET1VFEZLE</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>14.5970308</v>
-      </c>
-      <c r="D101" t="n">
-        <v>120.9776465</v>
+          <t>https://food.grab.com/ph/en/restaurant/mares-victory-lacson-delivery/2-C3TBETKEEB2GSA</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>14.5980992</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>120.9841511</t>
+        </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Better Boneless - Gastambide Manila</t>
+          <t>Lord Stow's Bakery - Ongpin [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/butternut-bakery-sm-manila-available-for-long-distance-delivery-delivery/2-C3XZTVCAVPVEAN</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>14.590339</v>
-      </c>
-      <c r="D102" t="n">
-        <v>120.983648</v>
+          <t>https://food.grab.com/ph/en/restaurant/lil-orbits-mini-donuts-st-thomas-square-available-for-long-distance-delivery-delivery/2-C3M2LLATLNWEBA</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>14.60565323</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>120.9886205</t>
+        </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Lord Stow's Bakery - Ongpin [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Cafe Aquatica - Binondo [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/president-grand-palace-resturant-binondo-available-for-long-distance-delivery-delivery/2-C2NXDB2GJJ5JET</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>14.601248</v>
-      </c>
-      <c r="D103" t="n">
-        <v>120.976369</v>
+          <t>https://food.grab.com/ph/en/restaurant/samgyup-on-the-go-p-paredes-street-available-for-long-distance-delivery-delivery/2-C3X3L8CAV2LWKE</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>14.60375919</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>120.9891425</t>
+        </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Awi's Cafe &amp; Restaurant - Yuchengco Street</t>
+          <t>Butternut Bakery - SM Manila [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/soy-bean-pacific-centre-binondo-delivery/2-C25YJ2DWTT2ZJJ</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>14.5984653</v>
-      </c>
-      <c r="D104" t="n">
-        <v>120.9756467</v>
+          <t>https://food.grab.com/ph/en/restaurant/mad-brews-recto-available-for-long-distance-delivery-delivery/2-C36GWGCYTPA1LJ</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>14.60198215</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>120.9878786</t>
+        </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Lola Nena's - Legarda [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Rue's Oven - SM Manila [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/fudo-san-sta-cruz-delivery/2-CZAZLB2BFAXHAT</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>14.599638</v>
-      </c>
-      <c r="D105" t="n">
-        <v>120.981279</v>
+          <t>https://food.grab.com/ph/en/restaurant/citystate-hotel-quezon-boulevard-delivery/2-CY6BDFWDEU3DJ6</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>14.599413933483214</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>120.98413149999999</t>
+        </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Mang Inasal - Raon</t>
+          <t>Coffee Project - Espana Boulevard</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/kumpapis-muralla-st-manila-delivery/2-C3VHRNWBWFMGBE</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>14.59386863</v>
-      </c>
-      <c r="D106" t="n">
-        <v>120.9764155</v>
+          <t>https://food.grab.com/ph/en/restaurant/halina-hotel-restaurant-rizal-avenue-delivery/2-C2TYV2AJJBMUGX</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>14.601594265287872</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>120.98144542327992</t>
+        </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Dimsum Treats - Morayta Recto</t>
+          <t>The Coffee Bean &amp; Tea Leaf - Laperal Apartments</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/chops-to-go-sm-manila-delivery/2-CZBHAKAWAPAGGE</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>14.59029533</v>
-      </c>
-      <c r="D107" t="n">
-        <v>120.9822236</v>
+          <t>https://food.grab.com/ph/en/restaurant/m-m-korean-kravings-atbp-feu-morayta-available-for-long-distance-delivery-delivery/2-C32UMFVXDCLJLT</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>14.60366303</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>120.9853521</t>
+        </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Gang Gang Chicken - Mendiola</t>
+          <t>Avocadoria - SM Manila</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/sun-cafe-manila-available-for-long-distance-delivery-delivery/2-C3XTBEVAARAVVE</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>14.60004985</v>
-      </c>
-      <c r="D108" t="n">
-        <v>120.9748967</v>
+          <t>https://food.grab.com/ph/en/restaurant/fat-boy-s-pizza-pasta-youniversity-suites-laperal-manila-delivery/2-C3VCLVDWJTUAAT</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>14.5997919</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>120.9905267</t>
+        </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Cala Cafe - University Tower 4</t>
+          <t>Sun Cafe - Manila [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/brownies-unlimited-sm-manila-available-for-long-distance-delivery-delivery/2-C2XVRNTUSGCGLX</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>14.590633</v>
-      </c>
-      <c r="D109" t="n">
-        <v>120.982442</v>
+          <t>https://food.grab.com/ph/en/restaurant/midnight-coffee-ust-espa%C3%B1a-delivery/2-C36XLBCFA7XYCX</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>14.60773817</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>120.9873903</t>
+        </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>T-Cup-Zone - Morayta [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Basta Inihaw - Recto [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/hen-lin-sm-manila-delivery/2-C35CSECUJKECNE</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>14.59028406</v>
-      </c>
-      <c r="D110" t="n">
-        <v>120.9822651</v>
+          <t>https://food.grab.com/ph/en/restaurant/yummie-pizza-p-paredes-street-available-for-long-distance-delivery-delivery/2-C3X3L8CAWAEKKA</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>14.60375919</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>120.9891425</t>
+        </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Bon Appetea - Escolta</t>
+          <t>Mares - Victory Lacson</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/coffee-project-vista-heights-delivery/2-CYV2KCM1TBJAV6</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>14.597548</v>
-      </c>
-      <c r="D111" t="n">
-        <v>120.9896859</v>
+          <t>https://food.grab.com/ph/en/restaurant/cabalen-sm-manila-available-for-long-distance-delivery-delivery/2-C2JZJ2V3EXCKCA</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>14.59028264</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>120.9837958</t>
+        </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Butternut Bakery - SM Manila [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Lil' Orbits Mini Donuts - St. Thomas Square [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/cafe-aquatica-binondo-available-for-long-distance-delivery-delivery/PHGFSTI000003f9</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>14.6003466</v>
-      </c>
-      <c r="D112" t="n">
-        <v>120.9745674</v>
+          <t>https://food.grab.com/ph/en/restaurant/gogodimsum-st-peter-available-for-long-distance-delivery-delivery/2-C3L1A6VDTFVYLJ</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>14.590324</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>120.982393</t>
+        </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>President Grand Palace Resturant - Binondo [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Samgyup On the Go - P. Paredes Street [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/balai-pandesal-jt-centrale-delivery/2-C3AYNLCBDBK3GJ</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>14.606922</v>
-      </c>
-      <c r="D113" t="n">
-        <v>120.983885</v>
+          <t>https://food.grab.com/ph/en/restaurant/diversitea-loyola-street-delivery/2-C2DJTPE1TKL1FE</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>14.6042256</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>120.9895675</t>
+        </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Soy &amp; Bean - Pacific Centre Binondo</t>
+          <t>Mad Brews - Recto [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/chawadi-cup-ongpin-available-for-long-distance-delivery-delivery/2-CYXJNY4XHGDXDA</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>14.601409</v>
-      </c>
-      <c r="D114" t="n">
-        <v>120.97643</v>
+          <t>https://food.grab.com/ph/en/restaurant/karate-kid-centro-escolar-university-available-for-long-distance-delivery-delivery/2-CYUCFGKUC2LASE</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>14.59879715</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>120.9925765</t>
+        </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Fudo-San - Sta. Cruz</t>
+          <t>Citystate Hotel - Quezon Boulevard</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/dadudz-unli-wings-st-thomas-square-available-for-long-distance-delivery-delivery/2-C23ZNBUFGADZTN</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>14.60562305</v>
-      </c>
-      <c r="D115" t="n">
-        <v>120.988576</v>
+          <t>https://food.grab.com/ph/en/restaurant/shancha-fresh-juice-milktea-benavidez-street-available-for-long-distance-delivery-delivery/2-C2JUGKVCPBLENN</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>14.60207581</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>120.9760154</t>
+        </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Kumpapis - Muralla St. Manila</t>
+          <t>Halina Hotel &amp; Restaurant - Rizal Avenue</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/the-hungry-egg-san-anton-street-manila-available-for-long-distance-delivery-delivery/2-C4BAJ3VJRLCTG6</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>14.60283278</v>
-      </c>
-      <c r="D116" t="n">
-        <v>120.9905063</v>
+          <t>https://food.grab.com/ph/en/restaurant/fry-guys-quiapo-delivery/2-C3TYACCGLBNAFE</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>14.60046365</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>120.9885724</t>
+        </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Chops To Go - SM Manila</t>
+          <t>M&amp;M Korean Kravings Atbp - Feu Morayta [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/corner-pizza-sm-manila-available-for-long-distance-delivery-delivery/2-C2WCLK4VARLDUE</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>14.59031155020275</v>
-      </c>
-      <c r="D117" t="n">
-        <v>120.9823488728886</v>
+          <t>https://food.grab.com/ph/en/restaurant/vista-hotel-and-restaurant-recto-street-delivery/2-CY4YGT62L6A3V2</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>14.6038780625</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>120.9812034</t>
+        </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sun Cafe - Manila [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Fat Boy's Pizza Pasta - Youniversity Suites Laperal Manila</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/polland-hopia-escolta-available-for-long-distance-delivery-delivery/2-CZLHC2CVNE51GE</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>14.59691830677849</v>
-      </c>
-      <c r="D118" t="n">
-        <v>120.9772560455522</v>
+          <t>https://food.grab.com/ph/en/restaurant/smile-to-go-university-tower-4-available-for-long-distance-delivery-delivery/2-CYK3GNVHAYBDNT</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>14.60616220909091</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>120.98993409999999</t>
+        </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Brownies Unlimited - SM Manila [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Midnight Coffee - UST España</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/fruitas-de-original-jamaican-pattie-shop-and-juice-bar-pacific-centre-delivery/2-C3AXJVNVLPVUL6</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>14.59853427</v>
-      </c>
-      <c r="D119" t="n">
-        <v>120.9757058</v>
+          <t>https://food.grab.com/ph/en/restaurant/street-kings-ust-available-for-long-distance-delivery-delivery/2-C3CXBE4VCBDASE</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>14.607173</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>120.987762</t>
+        </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Hen Lin - SM Manila</t>
+          <t>Yummie Pizza - P. Paredes Street [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/muhlach-ensaymada-isetann-recto-delivery/2-C3LVN26TTAKJG6</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>14.60329675</v>
-      </c>
-      <c r="D120" t="n">
-        <v>120.9838466</v>
+          <t>https://food.grab.com/ph/en/restaurant/glazed-unlimited-wings-manila-gastambide-available-for-long-distance-delivery-delivery/2-C33JTVCGLNAAGJ</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>14.60269656</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>120.9903477</t>
+        </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Coffee Project - Vista Heights</t>
+          <t>Cabalen - SM Manila [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/buko-express-sm-manila-available-for-long-distance-delivery-delivery/2-C2LYCNJHSATBSA</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>14.59034416</v>
-      </c>
-      <c r="D121" t="n">
-        <v>120.9830165</v>
+          <t>https://food.grab.com/ph/en/restaurant/lechon-factory-isetann-recto-available-for-long-distance-delivery-delivery/2-CYMARRMFGEMTN2</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>14.60308579</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>120.9841275</t>
+        </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Cafe Aquatica - Binondo [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Gogodimsum - St. Peter [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/sip-chow-food-express-gastambide-street-delivery/2-CZMUG6BAJTKZE6</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>14.604441</v>
-      </c>
-      <c r="D122" t="n">
-        <v>120.990626</v>
+          <t>https://food.grab.com/ph/en/restaurant/ali-and-pau-foodhouse-quiapo-delivery/2-C2AXL8KGA7XEUA</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>14.599928333333333</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>120.9882267</t>
+        </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Balai Pandesal - JT Centrale</t>
+          <t>Diversitea - Loyola Street</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/max-s-corner-bakery-cakes-breads-pastries-sm-manila-available-for-long-distance-delivery-delivery/2-C3LCLAVAL3JDGX</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>14.59030917</v>
-      </c>
-      <c r="D123" t="n">
-        <v>120.9837155</v>
+          <t>https://food.grab.com/ph/en/restaurant/chica-s-bagnet-express-ongpin-street-available-for-long-distance-delivery-delivery/2-CY5GHEK3RXKCGT</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>14.600697</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>120.975575</t>
+        </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Chawadi Cup - Ongpin [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Karate Kid - Centro Escolar University [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/sisig-ok-recto-manila-delivery/2-C2EBR24TC76JDA</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v>14.60080873</v>
-      </c>
-      <c r="D124" t="n">
-        <v>120.9898487</v>
+          <t>https://food.grab.com/ph/en/restaurant/auxsilog-auxytea-quiapo-available-for-long-distance-delivery-delivery/2-C2NDCPBVUCM3G2</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>14.597541333052035</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>120.98880117605506</t>
+        </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Dadudz Unli Wings - St. Thomas Square [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Shancha Fresh Juice &amp; Milktea - Benavidez Street [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/grillhouse-by-bms-recto-manila-available-for-long-distance-delivery-delivery/2-C343ENC1RA31DE</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>14.6009677</v>
-      </c>
-      <c r="D125" t="n">
-        <v>120.9900593</v>
+          <t>https://food.grab.com/ph/en/restaurant/chooks-to-go-legarda-street-manila-delivery/AWhenY1ckk5cOZVWu4Ya</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>14.600708</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>120.9913878</t>
+        </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>THE Hungry Egg - San Anton Street. Manila [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Fry Guys - Quiapo</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/big-daddy-s-cup-jt-centrale-delivery/2-C2DBEKLJGPAXC6</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
-        <v>14.6076433</v>
-      </c>
-      <c r="D126" t="n">
-        <v>120.9837719</v>
+          <t>https://food.grab.com/ph/en/restaurant/mister-lemon-ermita-available-for-long-distance-delivery-delivery/2-C2K1BFTEFFW1GN</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>14.59028132</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>120.9822551</t>
+        </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Corner Pizza - SM Manila [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Vista Hotel and Restaurant - Recto Street</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/goo-dee-taiwan-milk-tea-sampaloc-available-for-long-distance-delivery-delivery/2-C2UBVTU3GJXHKE</t>
-        </is>
-      </c>
-      <c r="C127" t="n">
-        <v>14.60183</v>
-      </c>
-      <c r="D127" t="n">
-        <v>120.99336</v>
+          <t>https://food.grab.com/ph/en/restaurant/fourteasix-milk-tea-quiapo-available-for-long-distance-delivery-delivery/2-CZKUG3XDRPXYWE</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>14.599221632829494</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>120.98996811557653</t>
+        </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Polland Hopia - Escolta [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Smile To Go - University Tower 4 [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/grillhouse-by-bms-recto-manila-available-for-long-distance-delivery-delivery/2-C343ENC1RA31DE</t>
-        </is>
-      </c>
-      <c r="C128" t="n">
-        <v>14.6009677</v>
-      </c>
-      <c r="D128" t="n">
-        <v>120.9900593</v>
+          <t>https://food.grab.com/ph/en/restaurant/j-cobz-bistro-dalupan-street-available-for-long-distance-delivery-delivery/2-C2AJJKUYGY52A6</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>14.6047201</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>120.9897071</t>
+        </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Fruitas &amp; De Original Jamaican Pattie Shop and Juice Bar - Pacific Centre</t>
+          <t>Street Kings - UST [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/926-grilled-food-house-thomas-pinpin-binondo-delivery/2-C3VDLNVXDATWJN</t>
-        </is>
-      </c>
-      <c r="C129" t="n">
-        <v>14.59842411</v>
-      </c>
-      <c r="D129" t="n">
-        <v>120.978721</v>
+          <t>https://food.grab.com/ph/en/restaurant/halina-hotel-restaurant-rizal-avenue-delivery/2-C2TYV2AJJBMUGX</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>14.601594265287872</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>120.98144542327992</t>
+        </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Muhlach Ensaymada - Isetann Recto</t>
+          <t>Glazed Unlimited Wings Manila - Gastambide [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/lechon-factory-isetann-recto-available-for-long-distance-delivery-delivery/2-CYMARRMFGEMTN2</t>
-        </is>
-      </c>
-      <c r="C130" t="n">
-        <v>14.60308579</v>
-      </c>
-      <c r="D130" t="n">
-        <v>120.9841275</v>
+          <t>https://food.grab.com/ph/en/restaurant/sarrapsa-sampaloc-available-for-long-distance-delivery-delivery/2-C33BT7EDNXWVNE</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>14.604471</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>120.990595</t>
+        </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Buko Express - SM Manila [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Lechon Factory - Isetann Recto [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/the-sushi-box-sm-manila-delivery/2-C3B2LEVDGK4UT6</t>
-        </is>
-      </c>
-      <c r="C131" t="n">
-        <v>14.59032325</v>
-      </c>
-      <c r="D131" t="n">
-        <v>120.9825015</v>
+          <t>https://food.grab.com/ph/en/restaurant/yummie-pizza-p-paredes-street-available-for-long-distance-delivery-delivery/2-C3X3L8CAWAEKKA</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>14.60375919</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>120.9891425</t>
+        </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sip &amp; Chow Food Express - Gastambide Street</t>
+          <t>Ali and Pau Foodhouse - Quiapo</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/fudo-san-sta-cruz-delivery/2-CZAZLB2BFAXHAT</t>
-        </is>
-      </c>
-      <c r="C132" t="n">
-        <v>14.599638</v>
-      </c>
-      <c r="D132" t="n">
-        <v>120.981279</v>
+          <t>https://food.grab.com/ph/en/restaurant/urbanitea-p-paredes-st-available-for-long-distance-delivery-delivery/2-C3X3L8CAVTXUT6</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>14.60375919</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>120.9891425</t>
+        </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Max's Corner Bakery (Cakes, Breads &amp; Pastries) - SM Manila [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Chica's Bagnet Express - Ongpin Street [Available for LONG-DISTANCE DELIVERY</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/brownies-unlimited-sm-manila-available-for-long-distance-delivery-delivery/2-C2XVRNTUSGCGLX</t>
-        </is>
-      </c>
-      <c r="C133" t="n">
-        <v>14.590633</v>
-      </c>
-      <c r="D133" t="n">
-        <v>120.982442</v>
+          <t>https://food.grab.com/ph/en/restaurant/vista-hotel-and-restaurant-recto-street-delivery/2-CY4YGT62L6A3V2</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>14.6038780625</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>120.9812034</t>
+        </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sisig Ok - Recto Manila</t>
+          <t>Auxsilog &amp; Auxytea - Quiapo [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/dejabrew-coffee-sampaloc-delivery/2-C3V1FFVYE4BWL2</t>
-        </is>
-      </c>
-      <c r="C134" t="n">
-        <v>14.60174746</v>
-      </c>
-      <c r="D134" t="n">
-        <v>120.9912747</v>
+          <t>https://food.grab.com/ph/en/restaurant/ali-and-pau-foodhouse-quiapo-delivery/2-C2AXL8KGA7XEUA</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>14.599928333333333</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>120.9882267</t>
+        </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>GrillHouse by BMS - Recto Manila [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Chooks To Go - Legarda Street Manila</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/tio-paengs-loyola-available-for-long-distance-delivery-delivery/2-C2TYN8L2RY5HRN</t>
-        </is>
-      </c>
-      <c r="C135" t="n">
-        <v>14.6058478</v>
-      </c>
-      <c r="D135" t="n">
-        <v>120.9909107</v>
+          <t>https://food.grab.com/ph/en/restaurant/the-cake-project-ongpin-corner-delivery/2-C23DT76JFEXTCJ</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>14.59996229</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>120.97492218</t>
+        </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Big Daddy's Cup - JT Centrale</t>
+          <t>Mister Lemon - Ermita [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/shark-s-bistro-padre-noval-street-delivery/2-C2MBC62FA7MDA2</t>
-        </is>
-      </c>
-      <c r="C136" t="n">
-        <v>14.60798178220011</v>
-      </c>
-      <c r="D136" t="n">
-        <v>120.9881650137645</v>
+          <t>https://food.grab.com/ph/en/restaurant/five-spice-express-ramada-by-wyndham-manila-central-delivery/PHGFSTI000001pi</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>14.600041</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>120.975008</t>
+        </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Goo Dee Taiwan Milk Tea - Sampaloc [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Fourteasix Milk Tea - Quiapo [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/muhlach-ensaymada-isetann-recto-delivery/2-C3LVN26TTAKJG6</t>
-        </is>
-      </c>
-      <c r="C137" t="n">
-        <v>14.60329675</v>
-      </c>
-      <c r="D137" t="n">
-        <v>120.9838466</v>
+          <t>https://food.grab.com/ph/en/restaurant/lumpianity-central-delivery/2-C3VZJJCGL7VHC2</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>14.5928529</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>120.9817688</t>
+        </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>GrillHouse by BMS - Recto Manila [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>J-Cobz Bistro - Dalupan Street [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/kalsada-burger-ust-available-for-long-distance-delivery-delivery/2-CZJ2MBCEDBCWHE</t>
-        </is>
-      </c>
-      <c r="C138" t="n">
-        <v>14.6076718</v>
-      </c>
-      <c r="D138" t="n">
-        <v>120.9884945</v>
+          <t>https://food.grab.com/ph/en/restaurant/midnight-coffee-ust-espa%C3%B1a-delivery/2-C36XLBCFA7XYCX</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>14.60773817</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>120.9873903</t>
+        </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>926 Grilled Food House - Thomas Pinpin Binondo</t>
+          <t>Halina Hotel &amp; Restaurant - Rizal Avenue</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/j-cobz-bistro-loyola-street-available-for-long-distance-delivery-delivery/PHGFSTI000001pq</t>
-        </is>
-      </c>
-      <c r="C139" t="n">
-        <v>14.6027034</v>
-      </c>
-      <c r="D139" t="n">
-        <v>120.988592</v>
+          <t>https://food.grab.com/ph/en/restaurant/monster-wings-sm-manila-available-for-long-distance-delivery-delivery/2-C2EARBA2JY2JDE</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>14.590311915609103</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>120.98277362854529</t>
+        </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Lechon Factory - Isetann Recto [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Sarrapsa - Sampaloc [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/infinitea-laperal-apartment-delivery/2-CYUGHB4ATVDZT6</t>
-        </is>
-      </c>
-      <c r="C140" t="n">
-        <v>14.6007194</v>
-      </c>
-      <c r="D140" t="n">
-        <v>120.9903795</v>
+          <t>https://food.grab.com/ph/en/restaurant/shancha-fresh-juice-milktea-benavidez-street-available-for-long-distance-delivery-delivery/2-C2JUGKVCPBLENN</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>14.60207581</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>120.9760154</t>
+        </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>The Sushi Box - SM Manila</t>
+          <t>Yummie Pizza - P. Paredes Street [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/cow-wow-sausage-haus-937-p-noval-available-for-long-distance-delivery-delivery/AWjGMbxcZXYdMpch2oCh</t>
-        </is>
-      </c>
-      <c r="C141" t="n">
-        <v>14.6071511</v>
-      </c>
-      <c r="D141" t="n">
-        <v>120.98898912</v>
+          <t>https://food.grab.com/ph/en/restaurant/mister-lemon-ermita-available-for-long-distance-delivery-delivery/2-C2K1BFTEFFW1GN</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>14.59028132</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>120.9822551</t>
+        </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Fudo-San - Sta. Cruz</t>
+          <t>Urbanitea - P. Paredes St. [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/nuli-milktea-studio-morayta-available-for-long-distance-delivery-delivery/2-C2TKTEJKJYKYC6</t>
-        </is>
-      </c>
-      <c r="C142" t="n">
-        <v>14.604766</v>
-      </c>
-      <c r="D142" t="n">
-        <v>120.987763</v>
+          <t>https://food.grab.com/ph/en/restaurant/fourteasix-milk-tea-quiapo-available-for-long-distance-delivery-delivery/2-CZKUG3XDRPXYWE</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>14.599221632829494</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>120.98996811557653</t>
+        </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Brownies Unlimited - SM Manila [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Vista Hotel and Restaurant - Recto Street</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/june-nairah-halal-food-restaurant-elizondo-street-delivery/2-C2AZE3UAG4E2ET</t>
-        </is>
-      </c>
-      <c r="C143" t="n">
-        <v>14.5966277</v>
-      </c>
-      <c r="D143" t="n">
-        <v>120.9846892</v>
+          <t>https://food.grab.com/ph/en/restaurant/diversitea-loyola-street-delivery/2-C2DJTPE1TKL1FE</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>14.6042256</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>120.9895675</t>
+        </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Dejabrew Coffee - Sampaloc</t>
+          <t>Ali and Pau Foodhouse - Quiapo</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/mister-donut-lacson-underpass-delivery/2-C2XWJAXTEF3GA2</t>
-        </is>
-      </c>
-      <c r="C144" t="n">
-        <v>14.5981151</v>
-      </c>
-      <c r="D144" t="n">
-        <v>120.9841068</v>
+          <t>https://food.grab.com/ph/en/restaurant/mad-brews-recto-available-for-long-distance-delivery-delivery/2-C36GWGCYTPA1LJ</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>14.60198215</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>120.9878786</t>
+        </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Tio Paengs - Loyola [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>The Cake Project - Ongpin Corner</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/mariela-bakeshop-bilibid-viejo-street-delivery/2-C2LYDB4ZJ4BWRX</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
-        <v>14.60067378</v>
-      </c>
-      <c r="D145" t="n">
-        <v>120.9872778</v>
+          <t>https://food.grab.com/ph/en/restaurant/nitro-7-coffee-and-tea-bar-l-a-village-delivery/2-CYNKJULVEVNDEA</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>14.6010305</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>120.9903005125</t>
+        </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Shark's Bistro - Padre Noval Street</t>
+          <t>Five Spice Express - Ramada by Wyndham Manila Central</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/the-hungry-pita-quiapo-delivery/2-C3WFR2VFRLBDJA</t>
-        </is>
-      </c>
-      <c r="C146" t="n">
-        <v>14.599832</v>
-      </c>
-      <c r="D146" t="n">
-        <v>120.984634</v>
+          <t>https://food.grab.com/ph/en/restaurant/the-brewed-buddies-sm-manila-available-for-long-distance-delivery-delivery/2-C2TACP3FJ4N2EA</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>14.590258468592637</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>120.98297489814934</t>
+        </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Muhlach Ensaymada - Isetann Recto</t>
+          <t>Lumpianity - Central</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/lumpianity-central-delivery/2-C3VZJJCGL7VHC2</t>
-        </is>
-      </c>
-      <c r="C147" t="n">
-        <v>14.5928529</v>
-      </c>
-      <c r="D147" t="n">
-        <v>120.9817688</v>
+          <t>https://food.grab.com/ph/en/restaurant/burger-matsing-legarda-available-for-long-distance-delivery-delivery/2-C22KFF6CGFL3G6</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>14.601068</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>120.991649</t>
+        </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Kalsada Burger - UST [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Midnight Coffee - UST España</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/k-egg-sampaloc-manila-delivery/2-C3UFJEAHN35FT6</t>
-        </is>
-      </c>
-      <c r="C148" t="n">
-        <v>14.60231279</v>
-      </c>
-      <c r="D148" t="n">
-        <v>120.9910496</v>
+          <t>https://food.grab.com/ph/en/restaurant/tropical-hut-hamburger-escolta-available-for-long-distance-delivery-delivery/2-CYVKSE5CLBNHGX</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>14.597299399999999</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>120.9780227</t>
+        </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>J-Cobz Bistro - Loyola Street [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Monster Wings - SM Manila [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/corner-pizza-sm-manila-available-for-long-distance-delivery-delivery/2-C2WCLK4VARLDUE</t>
-        </is>
-      </c>
-      <c r="C149" t="n">
-        <v>14.59031155020275</v>
-      </c>
-      <c r="D149" t="n">
-        <v>120.9823488728886</v>
+          <t>https://food.grab.com/ph/en/restaurant/farinas-ilocos-empanada-quiapo-available-for-long-distance-delivery-delivery/2-C2B1N8AYJTUJJE</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>14.600459</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>120.983485</t>
+        </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Infinitea - Laperal Apartment</t>
+          <t>Shancha Fresh Juice &amp; Milktea - Benavidez Street [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/gogodimsum-st-peter-available-for-long-distance-delivery-delivery/2-C3L1A6VDTFVYLJ</t>
-        </is>
-      </c>
-      <c r="C150" t="n">
-        <v>14.590324</v>
-      </c>
-      <c r="D150" t="n">
-        <v>120.982393</v>
+          <t>https://food.grab.com/ph/en/restaurant/kowloon-house-quiapo-available-for-long-distance-delivery-delivery/2-C3LHKB3JE7XJNX</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>14.59984597</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>120.9845705</t>
+        </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Cow-Wow Sausage Haus - 937 P. Noval [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Mister Lemon - Ermita [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/rue-s-oven-sm-manila-available-for-long-distance-delivery-delivery/2-C3X3NJCDCGJ1NA</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
-        <v>14.59029</v>
-      </c>
-      <c r="D151" t="n">
-        <v>120.982258</v>
+          <t>https://food.grab.com/ph/en/restaurant/katsunori-food-hall-sta-cruz-available-for-long-distance-delivery-delivery/2-C36KHGCVGNKXAT</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>14.606502</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>120.981819</t>
+        </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Nuli Milktea Studio - Morayta [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Fourteasix Milk Tea - Quiapo [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/m-m-korean-kravings-atbp-feu-morayta-available-for-long-distance-delivery-delivery/2-C32UMFVXDCLJLT</t>
-        </is>
-      </c>
-      <c r="C152" t="n">
-        <v>14.60366303</v>
-      </c>
-      <c r="D152" t="n">
-        <v>120.9853521</v>
+          <t>https://food.grab.com/ph/en/restaurant/cafe-france-ongpin-street-available-for-long-distance-delivery-delivery/PHGFSTI0000016w</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>14.6005704</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>120.9756178</t>
+        </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>June-Nairah Halal Food Restaurant - Elizondo Street</t>
+          <t>Diversitea - Loyola Street</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/president-grand-palace-resturant-binondo-available-for-long-distance-delivery-delivery/2-C2NXDB2GJJ5JET</t>
-        </is>
-      </c>
-      <c r="C153" t="n">
-        <v>14.601248</v>
-      </c>
-      <c r="D153" t="n">
-        <v>120.976369</v>
+          <t>https://food.grab.com/ph/en/restaurant/quickly-shoppers-mart-available-for-long-distance-delivery-delivery/2-C2NZNPLTLPJDDE</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>14.6005857</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>120.97566</t>
+        </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Mister Donut - Lacson Underpass</t>
+          <t>Mad Brews - Recto [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/fat-boy-s-pizza-pasta-youniversity-suites-laperal-manila-delivery/2-C3VCLVDWJTUAAT</t>
-        </is>
-      </c>
-      <c r="C154" t="n">
-        <v>14.5997919</v>
-      </c>
-      <c r="D154" t="n">
-        <v>120.9905267</v>
+          <t>https://food.grab.com/ph/en/restaurant/fruitas-de-original-jamaican-pattie-shop-and-juice-bar-pacific-centre-delivery/2-C3AXJVNVLPVUL6</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>14.59853427</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>120.9757058</t>
+        </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Mariela Bakeshop - Bilibid Viejo Street</t>
+          <t>Nitro 7 Coffee and Tea Bar - L.A Village</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/yummie-pizza-p-paredes-street-available-for-long-distance-delivery-delivery/2-C3X3L8CAWAEKKA</t>
-        </is>
-      </c>
-      <c r="C155" t="n">
-        <v>14.60375919</v>
-      </c>
-      <c r="D155" t="n">
-        <v>120.9891425</v>
+          <t>https://food.grab.com/ph/en/restaurant/asiamix-diner-p-noval-street-available-for-long-distance-delivery-delivery/2-C2NULBBYCGDKLE</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>14.6064256358</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>120.98962554147671</t>
+        </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>The Hungry Pita - Quiapo</t>
+          <t>The Brewed Buddies - SM Manila [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/chapes-keto-mompreneur-manila-available-for-long-distance-delivery-delivery/2-C2X1VRDCHEVJVT</t>
-        </is>
-      </c>
-      <c r="C156" t="n">
-        <v>14.5939029</v>
-      </c>
-      <c r="D156" t="n">
-        <v>120.9918032</v>
+          <t>https://food.grab.com/ph/en/restaurant/pancit-ng-taga-malabon-quiapo-available-for-long-distance-delivery-delivery/2-C2UGAEDFJYCDFA</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>14.5975467</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>120.9837582</t>
+        </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Lumpianity - Central</t>
+          <t>Burger Matsing - Legarda [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/what-the-tea-amaia-skies-delivery/PHGFSTI000003ch</t>
-        </is>
-      </c>
-      <c r="C157" t="n">
-        <v>14.6051638</v>
-      </c>
-      <c r="D157" t="n">
-        <v>120.980958425</v>
+          <t>https://food.grab.com/ph/en/restaurant/chachago-legarda-available-for-long-distance-delivery-delivery/2-CZEVRJKDE36CR2</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>14.5993607</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>120.99041435000001</t>
+        </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>K-Egg - Sampaloc Manila</t>
+          <t>Tropical Hut Hamburger - Escolta [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/takoishi-binondo-delivery/2-C2LFNVJVTYLWLN</t>
-        </is>
-      </c>
-      <c r="C158" t="n">
-        <v>14.598782</v>
-      </c>
-      <c r="D158" t="n">
-        <v>120.979038</v>
+          <t>https://food.grab.com/ph/en/restaurant/cow-wow-sausage-haus-937-p-noval-available-for-long-distance-delivery-delivery/AWjGMbxcZXYdMpch2oCh</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>14.6071511</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>120.98898912</t>
+        </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Corner Pizza - SM Manila [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Farinas Ilocos Empanada - Quiapo [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/coffee-project-vista-heights-delivery/2-CYV2KCM1TBJAV6</t>
-        </is>
-      </c>
-      <c r="C159" t="n">
-        <v>14.597548</v>
-      </c>
-      <c r="D159" t="n">
-        <v>120.9896859</v>
+          <t>https://food.grab.com/ph/en/restaurant/g-g-fried-chicken-palanca-delivery/2-C3DCR6JEAT5HTE</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>14.5981983</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>120.9819969</t>
+        </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Gogodimsum - St. Peter [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Kowloon House - Quiapo [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/pares-kimchi-mehan-garden-delivery/2-C2UWV6DZJ34ETT</t>
-        </is>
-      </c>
-      <c r="C160" t="n">
-        <v>14.59149386538623</v>
-      </c>
-      <c r="D160" t="n">
-        <v>120.9811453352713</v>
+          <t>https://food.grab.com/ph/en/restaurant/awi-s-cafe-restaurant-yuchengco-street-delivery/2-CZA3E7VHNYWVAE</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>14.59946708</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>120.9762634</t>
+        </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Rue's Oven - SM Manila [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Katsunori Food Hall - Sta. Cruz [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/fourteasix-milk-tea-quiapo-available-for-long-distance-delivery-delivery/2-CZKUG3XDRPXYWE</t>
-        </is>
-      </c>
-      <c r="C161" t="n">
-        <v>14.59922163282949</v>
-      </c>
-      <c r="D161" t="n">
-        <v>120.9899681155765</v>
+          <t>https://food.grab.com/ph/en/restaurant/tolit-s-peri-peri-morayta-delivery/2-C3LFV6NHVE6KV6</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>14.60082754</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>120.9903528</t>
+        </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>M&amp;M Korean Kravings Atbp - Feu Morayta [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Cafe France - Ongpin Street [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/glazed-unlimited-wings-manila-gastambide-available-for-long-distance-delivery-delivery/2-C33JTVCGLNAAGJ</t>
-        </is>
-      </c>
-      <c r="C162" t="n">
-        <v>14.60269656</v>
-      </c>
-      <c r="D162" t="n">
-        <v>120.9903477</v>
+          <t>https://food.grab.com/ph/en/restaurant/don-benito-s-quiapo-delivery/2-CY2EV76CAKN3EA</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>14.597695</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>120.9839091</t>
+        </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>President Grand Palace Resturant - Binondo [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Quickly - Shoppers Mart [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/pizza-haus-manila-recto-avenue-delivery/2-C2DWWBMVJ4EDEX</t>
-        </is>
-      </c>
-      <c r="C163" t="n">
-        <v>14.60118366875</v>
-      </c>
-      <c r="D163" t="n">
-        <v>120.9896951</v>
+          <t>https://food.grab.com/ph/en/restaurant/24-7-food-hub-mix-and-match-sta-cruz-delivery/2-C4BEEECTE6D1UE</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>14.606543</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>120.981725</t>
+        </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Fat Boy's Pizza Pasta - Youniversity Suites Laperal Manila</t>
+          <t>Fruitas &amp; De Original Jamaican Pattie Shop and Juice Bar - Pacific Centre</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/i-love-milktea-concepcion-manila-delivery/2-C2AEDE3ZR7JTCE</t>
-        </is>
-      </c>
-      <c r="C164" t="n">
-        <v>14.5976714</v>
-      </c>
-      <c r="D164" t="n">
-        <v>120.9881989</v>
+          <t>https://food.grab.com/ph/en/restaurant/the-sushi-box-sm-manila-delivery/2-C3B2LEVDGK4UT6</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>14.59032325</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>120.9825015</t>
+        </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Yummie Pizza - P. Paredes Street [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Asiamix Diner - P. Noval Street [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/happy-ice-scramble-yuchengco-binondo-delivery/2-C3LXNKBDNNUGCJ</t>
-        </is>
-      </c>
-      <c r="C165" t="n">
-        <v>14.600335</v>
-      </c>
-      <c r="D165" t="n">
-        <v>120.975816</v>
+          <t>https://food.grab.com/ph/en/restaurant/perico-s-grill-mendiola-delivery/2-CZLHT26DWFWEWE</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>14.598426525</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>120.99358269999999</t>
+        </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Chapes Keto Mompreneur - Manila [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Pancit Ng Taga Malabon - Quiapo [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/cafe-aquatica-binondo-available-for-long-distance-delivery-delivery/PHGFSTI000003f9</t>
-        </is>
-      </c>
-      <c r="C166" t="n">
-        <v>14.6003466</v>
-      </c>
-      <c r="D166" t="n">
-        <v>120.9745674</v>
+          <t>https://food.grab.com/ph/en/restaurant/mister-donut-lacson-underpass-delivery/2-C2XWJAXTEF3GA2</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>14.5981151</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>120.9841068</t>
+        </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>What the Tea - Amaia Skies</t>
+          <t>Chachago - Legarda [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/travel-burger-cafe-sampaloc-available-for-long-distance-delivery-delivery/2-C2E2C3WCTPWJRE</t>
-        </is>
-      </c>
-      <c r="C167" t="n">
-        <v>14.6079964</v>
-      </c>
-      <c r="D167" t="n">
-        <v>120.98613595</v>
+          <t>https://food.grab.com/ph/en/restaurant/happy-ice-scramble-yuchengco-binondo-delivery/2-C3LXNKBDNNUGCJ</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>14.600335</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>120.975816</t>
+        </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Takoishi - Binondo</t>
+          <t>Cow-Wow Sausage Haus - 937 P. Noval [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/butternut-bakery-sm-manila-available-for-long-distance-delivery-delivery/2-C3XZTVCAVPVEAN</t>
-        </is>
-      </c>
-      <c r="C168" t="n">
-        <v>14.590339</v>
-      </c>
-      <c r="D168" t="n">
-        <v>120.983648</v>
+          <t>https://food.grab.com/ph/en/restaurant/polland-hopia-escolta-available-for-long-distance-delivery-delivery/2-CZLHC2CVNE51GE</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>14.596918306778491</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>120.97725604555215</t>
+        </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Coffee Project - Vista Heights</t>
+          <t>G&amp;G Fried Chicken - Palanca</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/soy-bean-and-balai-pandesal-new-piac-bee-delivery/2-C2CALEJZVEDJLX</t>
-        </is>
-      </c>
-      <c r="C169" t="n">
-        <v>14.60167757</v>
-      </c>
-      <c r="D169" t="n">
-        <v>120.9778080571429</v>
+          <t>https://food.grab.com/ph/en/restaurant/june-nairah-halal-food-restaurant-elizondo-street-delivery/2-C2AZE3UAG4E2ET</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>14.5966277</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>120.9846892</t>
+        </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Pares Kimchi - Mehan Garden</t>
+          <t>Awi's Cafe &amp; Restaurant - Yuchengco Street</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/sun-cafe-manila-available-for-long-distance-delivery-delivery/2-C3XTBEVAARAVVE</t>
-        </is>
-      </c>
-      <c r="C170" t="n">
-        <v>14.60004985</v>
-      </c>
-      <c r="D170" t="n">
-        <v>120.9748967</v>
+          <t>https://food.grab.com/ph/en/restaurant/max-s-corner-bakery-cakes-breads-pastries-sm-manila-available-for-long-distance-delivery-delivery/2-C3LCLAVAL3JDGX</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>14.59030917</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>120.9837155</t>
+        </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Fourteasix Milk Tea - Quiapo [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Tolit's Peri Peri - Morayta</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/vianney-s-university-tower-delivery/2-C3WKE3VTRT4ZTE</t>
-        </is>
-      </c>
-      <c r="C171" t="n">
-        <v>14.606098</v>
-      </c>
-      <c r="D171" t="n">
-        <v>120.989886</v>
+          <t>https://food.grab.com/ph/en/restaurant/sisig-ok-recto-manila-delivery/2-C2EBR24TC76JDA</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>14.60080873</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>120.9898487</t>
+        </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Glazed Unlimited Wings Manila - Gastambide [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Don Benito's - Quiapo</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/monster-wings-sm-manila-available-for-long-distance-delivery-delivery/2-C2EARBA2JY2JDE</t>
-        </is>
-      </c>
-      <c r="C172" t="n">
-        <v>14.5903119156091</v>
-      </c>
-      <c r="D172" t="n">
-        <v>120.9827736285453</v>
+          <t>https://food.grab.com/ph/en/restaurant/the-hungry-pita-quiapo-delivery/2-C3WFR2VFRLBDJA</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>14.599832</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>120.984634</t>
+        </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Pizza Haus Manila - Recto Avenue</t>
+          <t>24/7 Food Hub - Mix and Match (Sta. Cruz)</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/macao-imperial-tea-mendiola-available-for-long-distance-delivery-delivery/2-CY2EGPUFTYKJVX</t>
-        </is>
-      </c>
-      <c r="C173" t="n">
-        <v>14.60122955</v>
-      </c>
-      <c r="D173" t="n">
-        <v>120.9897688</v>
+          <t>https://food.grab.com/ph/en/restaurant/baon-fish-manila-delivery/2-C2L1VXUYJAWDTE</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>14.60653725</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>120.9884474</t>
+        </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>I Love Milktea - Concepcion Manila</t>
+          <t>The Sushi Box - SM Manila</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/tokyo-tokyo-xentro-mall-legarda-delivery/2-C2NJVVAKTXU2TT</t>
-        </is>
-      </c>
-      <c r="C174" t="n">
-        <v>14.6014757</v>
-      </c>
-      <c r="D174" t="n">
-        <v>120.9926647</v>
+          <t>https://food.grab.com/ph/en/restaurant/i-love-milktea-concepcion-manila-delivery/2-C2AEDE3ZR7JTCE</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>14.5976714</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>120.9881989</t>
+        </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Happy Ice Scramble - Yuchengco Binondo</t>
+          <t>Perico's Grill - Mendiola</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/buko-express-sm-manila-available-for-long-distance-delivery-delivery/2-C2LYCNJHSATBSA</t>
-        </is>
-      </c>
-      <c r="C175" t="n">
-        <v>14.59034416</v>
-      </c>
-      <c r="D175" t="n">
-        <v>120.9830165</v>
+          <t>https://food.grab.com/ph/en/restaurant/big-daddy-s-cup-jt-centrale-delivery/2-C2DBEKLJGPAXC6</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>14.6076433</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>120.9837719</t>
+        </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Cafe Aquatica - Binondo [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Mister Donut - Lacson Underpass</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/mad-brews-recto-available-for-long-distance-delivery-delivery/2-C36GWGCYTPA1LJ</t>
-        </is>
-      </c>
-      <c r="C176" t="n">
-        <v>14.60198215</v>
-      </c>
-      <c r="D176" t="n">
-        <v>120.9878786</v>
+          <t>https://food.grab.com/ph/en/restaurant/takoishi-binondo-delivery/2-C2LFNVJVTYLWLN</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>14.598782</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>120.979038</t>
+        </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Travel Burger Cafe - Sampaloc [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Happy Ice Scramble - Yuchengco Binondo</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/sweet-tooth-legarda-delivery/2-C3JVETCFHCNHNJ</t>
-        </is>
-      </c>
-      <c r="C177" t="n">
-        <v>14.600857</v>
-      </c>
-      <c r="D177" t="n">
-        <v>120.991672</v>
+          <t>https://food.grab.com/ph/en/restaurant/chapes-keto-mompreneur-manila-available-for-long-distance-delivery-delivery/2-C2X1VRDCHEVJVT</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>14.5939029</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>120.9918032</t>
+        </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Butternut Bakery - SM Manila [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Polland Hopia - Escolta [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/boba-ka-tea-loyola-street-available-for-long-distance-delivery-delivery/2-C2AYJX31LPBYBE</t>
-        </is>
-      </c>
-      <c r="C178" t="n">
-        <v>14.60522</v>
-      </c>
-      <c r="D178" t="n">
-        <v>120.990135</v>
+          <t>https://food.grab.com/ph/en/restaurant/dimsum-treats-morayta-recto-delivery/2-C4BFPADKEZKYUA</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>14.60238754</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>120.9873186</t>
+        </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Soy &amp; Bean and Balai Pandesal - New Piac Bee</t>
+          <t>June-Nairah Halal Food Restaurant - Elizondo Street</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/diversitea-loyola-street-delivery/2-C2DJTPE1TKL1FE</t>
-        </is>
-      </c>
-      <c r="C179" t="n">
-        <v>14.6042256</v>
-      </c>
-      <c r="D179" t="n">
-        <v>120.9895675</v>
+          <t>https://food.grab.com/ph/en/restaurant/t-cup-zone-morayta-available-for-long-distance-delivery-delivery/2-C4BTR4BZN6AJTJ</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>14.60369979</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>120.9882075</t>
+        </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sun Cafe - Manila [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Max's Corner Bakery (Cakes, Breads &amp; Pastries) - SM Manila [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/sisig-sa-wrap-gastambide-street-available-for-long-distance-delivery-delivery/PHGFSTI000001d2</t>
-        </is>
-      </c>
-      <c r="C180" t="n">
-        <v>14.6008133</v>
-      </c>
-      <c r="D180" t="n">
-        <v>120.9911537</v>
+          <t>https://food.grab.com/ph/en/restaurant/papa-tapa-qq-mall-delivery/2-C4BVRACCVT6TFE</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>14.60220191</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>120.9836631</t>
+        </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Vianney's - University Tower</t>
+          <t>Sisig Ok - Recto Manila</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/shancha-fresh-juice-milktea-benavidez-street-available-for-long-distance-delivery-delivery/2-C2JUGKVCPBLENN</t>
-        </is>
-      </c>
-      <c r="C181" t="n">
-        <v>14.60207581</v>
-      </c>
-      <c r="D181" t="n">
-        <v>120.9760154</v>
+          <t>https://food.grab.com/ph/en/restaurant/buko-express-sm-manila-available-for-long-distance-delivery-delivery/2-C2LYCNJHSATBSA</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>14.59034416</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>120.9830165</t>
+        </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Monster Wings - SM Manila [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>The Hungry Pita - Quiapo</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/angel-s-sizzling-delos-santos-street-available-for-long-distance-delivery-delivery/2-C23ZN3NYEBJKL6</t>
-        </is>
-      </c>
-      <c r="C182" t="n">
-        <v>14.6033922</v>
-      </c>
-      <c r="D182" t="n">
-        <v>120.9907382</v>
+          <t>https://food.grab.com/ph/en/restaurant/my-cup-gonzalo-extension-delivery/2-C2KFCP6KV25DTE</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>14.600872</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>120.9823777</t>
+        </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Macao Imperial Tea - Mendiola [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Baon Fish - Manila</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/chang-thai-tea-sampaloc-available-for-long-distance-delivery-delivery/2-C2VYAKUVSFLANX</t>
-        </is>
-      </c>
-      <c r="C183" t="n">
-        <v>14.6075075</v>
-      </c>
-      <c r="D183" t="n">
-        <v>120.9866534</v>
+          <t>https://food.grab.com/ph/en/restaurant/the-hungry-egg-san-anton-street-manila-available-for-long-distance-delivery-delivery/2-C4BAJ3VJRLCTG6</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>14.60283278</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>120.9905063</t>
+        </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Tokyo Tokyo - Xentro Mall Legarda</t>
+          <t>I Love Milktea - Concepcion Manila</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/chicken-houz-sampaloc-available-for-long-distance-delivery-delivery/2-CZNTEBLEV6TAPE</t>
-        </is>
-      </c>
-      <c r="C184" t="n">
-        <v>14.6007516</v>
-      </c>
-      <c r="D184" t="n">
-        <v>120.9912471</v>
+          <t>https://food.grab.com/ph/en/restaurant/goo-dee-taiwan-milk-tea-sampaloc-available-for-long-distance-delivery-delivery/2-C2UBVTU3GJXHKE</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>14.60183</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>120.99336</t>
+        </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Buko Express - SM Manila [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Big Daddy's Cup - JT Centrale</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/belden-milktea-tolentino-street-available-for-long-distance-delivery-delivery/2-C2B1VKEFVF6HRT</t>
-        </is>
-      </c>
-      <c r="C185" t="n">
-        <v>14.607526</v>
-      </c>
-      <c r="D185" t="n">
-        <v>120.987775</v>
+          <t>https://food.grab.com/ph/en/restaurant/cala-cafe-university-tower-4-delivery/2-C3W2E2CEFFKKLT</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>14.6062605</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>120.9898449</t>
+        </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Mad Brews - Recto [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Takoishi - Binondo</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/the-tapsishop-sampaloc-manila-delivery/2-C22TG2DKAJ5JJE</t>
-        </is>
-      </c>
-      <c r="C186" t="n">
-        <v>14.608459</v>
-      </c>
-      <c r="D186" t="n">
-        <v>120.986133</v>
+          <t>https://food.grab.com/ph/en/restaurant/soy-bean-and-balai-pandesal-new-piac-bee-delivery/2-C2CALEJZVEDJLX</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>14.60167757</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>120.97780805714287</t>
+        </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sweet Tooth - Legarda</t>
+          <t>Chapes Keto Mompreneur - Manila [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/sisig-ok-recto-manila-delivery/2-C2EBR24TC76JDA</t>
-        </is>
-      </c>
-      <c r="C187" t="n">
-        <v>14.60080873</v>
-      </c>
-      <c r="D187" t="n">
-        <v>120.9898487</v>
+          <t>https://food.grab.com/ph/en/restaurant/choco-monkey-sm-manila-delivery/2-C3V1FFVYE6ECRE</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>14.5903182</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>120.9831812</t>
+        </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Boba Ka Tea - Loyola Street [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Dimsum Treats - Morayta Recto</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/polland-hopia-escolta-available-for-long-distance-delivery-delivery/2-CZLHC2CVNE51GE</t>
-        </is>
-      </c>
-      <c r="C188" t="n">
-        <v>14.59691830677849</v>
-      </c>
-      <c r="D188" t="n">
-        <v>120.9772560455522</v>
+          <t>https://food.grab.com/ph/en/restaurant/tokyo-tokyo-xentro-mall-legarda-delivery/2-C2NJVVAKTXU2TT</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>14.6014757</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>120.9926647</t>
+        </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Diversitea - Loyola Street</t>
+          <t>T-Cup-Zone - Morayta [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/coffee-plus-metro-suites-building-available-for-long-distance-delivery-delivery/2-C2A3L26AEGK2VA</t>
-        </is>
-      </c>
-      <c r="C189" t="n">
-        <v>14.6082067</v>
-      </c>
-      <c r="D189" t="n">
-        <v>120.9876383333333</v>
+          <t>https://food.grab.com/ph/en/restaurant/angel-s-sizzling-delos-santos-street-available-for-long-distance-delivery-delivery/2-C23ZN3NYEBJKL6</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>14.6033922</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>120.9907382</t>
+        </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sisig Sa-Wrap - Gastambide Street [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Papa Tapa - QQ Mall</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/soy-bean-pacific-centre-binondo-delivery/2-C25YJ2DWTT2ZJJ</t>
-        </is>
-      </c>
-      <c r="C190" t="n">
-        <v>14.5984653</v>
-      </c>
-      <c r="D190" t="n">
-        <v>120.9756467</v>
+          <t>https://food.grab.com/ph/en/restaurant/boba-ka-tea-loyola-street-available-for-long-distance-delivery-delivery/2-C2AYJX31LPBYBE</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>14.60522</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>120.990135</t>
+        </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Shancha Fresh Juice &amp; Milktea - Benavidez Street [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Buko Express - SM Manila [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/baon-fish-manila-delivery/2-C2L1VXUYJAWDTE</t>
-        </is>
-      </c>
-      <c r="C191" t="n">
-        <v>14.60653725</v>
-      </c>
-      <c r="D191" t="n">
-        <v>120.9884474</v>
+          <t>https://food.grab.com/ph/en/restaurant/travel-burger-cafe-sampaloc-available-for-long-distance-delivery-delivery/2-C2E2C3WCTPWJRE</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>14.6079964</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>120.98613595</t>
+        </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Angel's Sizzling - Delos Santos Street [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>My Cup - Gonzalo Extension</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/big-daddy-s-cup-jt-centrale-delivery/2-C2DBEKLJGPAXC6</t>
-        </is>
-      </c>
-      <c r="C192" t="n">
-        <v>14.6076433</v>
-      </c>
-      <c r="D192" t="n">
-        <v>120.9837719</v>
+          <t>https://food.grab.com/ph/en/restaurant/pizza-haus-manila-recto-avenue-delivery/2-C2DWWBMVJ4EDEX</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>14.60118366875</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>120.9896951</t>
+        </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Chang Thai Tea - Sampaloc [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>THE Hungry Egg - San Anton Street. Manila [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/max-s-corner-bakery-cakes-breads-pastries-sm-manila-available-for-long-distance-delivery-delivery/2-C3LCLAVAL3JDGX</t>
-        </is>
-      </c>
-      <c r="C193" t="n">
-        <v>14.59030917</v>
-      </c>
-      <c r="D193" t="n">
-        <v>120.9837155</v>
+          <t>https://food.grab.com/ph/en/restaurant/sisig-sa-wrap-gastambide-street-available-for-long-distance-delivery-delivery/PHGFSTI000001d2</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>14.6008133</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>120.9911537</t>
+        </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Chicken Houz - Sampaloc [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Goo Dee Taiwan Milk Tea - Sampaloc [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/mister-lemon-ermita-available-for-long-distance-delivery-delivery/2-C2K1BFTEFFW1GN</t>
-        </is>
-      </c>
-      <c r="C194" t="n">
-        <v>14.59028132</v>
-      </c>
-      <c r="D194" t="n">
-        <v>120.9822551</v>
+          <t>https://food.grab.com/ph/en/restaurant/macao-imperial-tea-mendiola-available-for-long-distance-delivery-delivery/2-CY2EGPUFTYKJVX</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>14.60122955</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>120.9897688</t>
+        </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Belden Milktea - Tolentino Street [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Cala Cafe - University Tower 4</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/choco-monkey-sm-manila-delivery/2-C3V1FFVYE6ECRE</t>
-        </is>
-      </c>
-      <c r="C195" t="n">
-        <v>14.5903182</v>
-      </c>
-      <c r="D195" t="n">
-        <v>120.9831812</v>
+          <t>https://food.grab.com/ph/en/restaurant/what-the-tea-amaia-skies-delivery/PHGFSTI000003ch</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>14.6051638</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>120.98095842500001</t>
+        </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>The Tapsishop - Sampaloc Manila</t>
+          <t>Soy &amp; Bean and Balai Pandesal - New Piac Bee</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/my-cup-gonzalo-extension-delivery/2-C2KFCP6KV25DTE</t>
-        </is>
-      </c>
-      <c r="C196" t="n">
-        <v>14.600872</v>
-      </c>
-      <c r="D196" t="n">
-        <v>120.9823777</v>
+          <t>https://food.grab.com/ph/en/restaurant/chicken-houz-sampaloc-available-for-long-distance-delivery-delivery/2-CZNTEBLEV6TAPE</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>14.6007516</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>120.9912471</t>
+        </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sisig Ok - Recto Manila</t>
+          <t>Choco Monkey - SM Manila</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/the-hungry-egg-san-anton-street-manila-available-for-long-distance-delivery-delivery/2-C4BAJ3VJRLCTG6</t>
-        </is>
-      </c>
-      <c r="C197" t="n">
-        <v>14.60283278</v>
-      </c>
-      <c r="D197" t="n">
-        <v>120.9905063</v>
+          <t>https://food.grab.com/ph/en/restaurant/the-tapsishop-sampaloc-manila-delivery/2-C22TG2DKAJ5JJE</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>14.608459</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>120.986133</t>
+        </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Polland Hopia - Escolta [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Tokyo Tokyo - Xentro Mall Legarda</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/goo-dee-taiwan-milk-tea-sampaloc-available-for-long-distance-delivery-delivery/2-C2UBVTU3GJXHKE</t>
-        </is>
-      </c>
-      <c r="C198" t="n">
-        <v>14.60183</v>
-      </c>
-      <c r="D198" t="n">
-        <v>120.99336</v>
+          <t>https://food.grab.com/ph/en/restaurant/chang-thai-tea-sampaloc-available-for-long-distance-delivery-delivery/2-C2VYAKUVSFLANX</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>14.6075075</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>120.9866534</t>
+        </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Coffee Plus - Metro Suites Building [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Angel's Sizzling - Delos Santos Street [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/t-cup-zone-morayta-available-for-long-distance-delivery-delivery/2-C4BTR4BZN6AJTJ</t>
-        </is>
-      </c>
-      <c r="C199" t="n">
-        <v>14.60369979</v>
-      </c>
-      <c r="D199" t="n">
-        <v>120.9882075</v>
+          <t>https://food.grab.com/ph/en/restaurant/belden-milktea-tolentino-street-available-for-long-distance-delivery-delivery/2-C2B1VKEFVF6HRT</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>14.607526</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>120.987775</t>
+        </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Soy &amp; Bean - Pacific Centre Binondo</t>
+          <t>Boba Ka Tea - Loyola Street [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/uncle-bro-s-on-line-pizza-hub-campus-tambayan-delivery/2-C2NDVUETREAZME</t>
-        </is>
-      </c>
-      <c r="C200" t="n">
-        <v>14.604006</v>
-      </c>
-      <c r="D200" t="n">
-        <v>120.987582</v>
+          <t>https://food.grab.com/ph/en/restaurant/sweet-tooth-legarda-delivery/2-C3JVETCFHCNHNJ</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>14.600857</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>120.991672</t>
+        </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Baon Fish - Manila</t>
+          <t>Travel Burger Cafe - Sampaloc [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/happy-thirstday-sampaloc-available-for-long-distance-delivery-delivery/2-C2NXGFKDPEEACE</t>
-        </is>
-      </c>
-      <c r="C201" t="n">
-        <v>14.607373</v>
-      </c>
-      <c r="D201" t="n">
-        <v>120.987819</v>
+          <t>https://food.grab.com/ph/en/restaurant/kalsada-burger-ust-available-for-long-distance-delivery-delivery/2-CZJ2MBCEDBCWHE</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>14.6076718</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>120.9884945</t>
+        </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Big Daddy's Cup - JT Centrale</t>
+          <t>Pizza Haus Manila - Recto Avenue</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/yoshimeatsu-ust-u-belt-delivery/2-C2J1G221N8L3AA</t>
-        </is>
-      </c>
-      <c r="C202" t="n">
-        <v>14.605315</v>
-      </c>
-      <c r="D202" t="n">
-        <v>120.988731</v>
+          <t>https://food.grab.com/ph/en/restaurant/k-egg-sampaloc-manila-delivery/2-C3UFJEAHN35FT6</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>14.60231279</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>120.9910496</t>
+        </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Max's Corner Bakery (Cakes, Breads &amp; Pastries) - SM Manila [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Sisig Sa-Wrap - Gastambide Street [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/tin-kyle-silog-silogan-gastambide-st-available-for-long-distance-delivery-delivery/2-C3AAR2CCLFKKHE</t>
-        </is>
-      </c>
-      <c r="C203" t="n">
-        <v>14.602665</v>
-      </c>
-      <c r="D203" t="n">
-        <v>120.990423</v>
+          <t>https://food.grab.com/ph/en/restaurant/joni-s-grill-delos-santos-street-available-for-long-distance-delivery-delivery/2-C23ZN7JJTCNECN</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>14.6033922</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>120.9907382</t>
+        </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Mister Lemon - Ermita [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Macao Imperial Tea - Mendiola [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/sisig-station-st-thomas-square-delivery/2-CY2ATPJTE3XUCJ</t>
-        </is>
-      </c>
-      <c r="C204" t="n">
-        <v>14.6057051</v>
-      </c>
-      <c r="D204" t="n">
-        <v>120.9886564</v>
+          <t>https://food.grab.com/ph/en/restaurant/tio-paengs-loyola-available-for-long-distance-delivery-delivery/2-C2TYN8L2RY5HRN</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>14.6058478</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>120.9909107</t>
+        </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Choco Monkey - SM Manila</t>
+          <t>What the Tea - Amaia Skies</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/niknoks-eatery-gastambide-st-delivery/2-C2V1DCCZFCDYKA</t>
-        </is>
-      </c>
-      <c r="C205" t="n">
-        <v>14.6014</v>
-      </c>
-      <c r="D205" t="n">
-        <v>120.991008</v>
+          <t>https://food.grab.com/ph/en/restaurant/infinitea-laperal-apartment-delivery/2-CYUGHB4ATVDZT6</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>14.600719400000001</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>120.9903795</t>
+        </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>My Cup - Gonzalo Extension</t>
+          <t>Chicken Houz - Sampaloc [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/sarrapsa-sampaloc-available-for-long-distance-delivery-delivery/2-C33BT7EDNXWVNE</t>
-        </is>
-      </c>
-      <c r="C206" t="n">
-        <v>14.604471</v>
-      </c>
-      <c r="D206" t="n">
-        <v>120.990595</v>
+          <t>https://food.grab.com/ph/en/restaurant/mariela-bakeshop-bilibid-viejo-street-delivery/2-C2LYDB4ZJ4BWRX</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>14.60067378</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>120.9872778</t>
+        </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>THE Hungry Egg - San Anton Street. Manila [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>The Tapsishop - Sampaloc Manila</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/it-s-time-unliwings-sampaloc-delivery/2-C2JEHETAJKVWCT</t>
-        </is>
-      </c>
-      <c r="C207" t="n">
-        <v>14.6050463</v>
-      </c>
-      <c r="D207" t="n">
-        <v>120.9910088</v>
+          <t>https://food.grab.com/ph/en/restaurant/vianney-s-university-tower-delivery/2-C3WKE3VTRT4ZTE</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>14.606098</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>120.989886</t>
+        </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Goo Dee Taiwan Milk Tea - Sampaloc [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Chang Thai Tea - Sampaloc [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/nitro-7-coffee-and-tea-bar-l-a-village-delivery/2-CYNKJULVEVNDEA</t>
-        </is>
-      </c>
-      <c r="C208" t="n">
-        <v>14.6010305</v>
-      </c>
-      <c r="D208" t="n">
-        <v>120.9903005125</v>
+          <t>https://food.grab.com/ph/en/restaurant/coffee-plus-metro-suites-building-available-for-long-distance-delivery-delivery/2-C2A3L26AEGK2VA</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>14.6082067</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>120.98763833333332</t>
+        </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>T-Cup-Zone - Morayta [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Belden Milktea - Tolentino Street [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/urbanitea-p-paredes-st-available-for-long-distance-delivery-delivery/2-C3X3L8CAVTXUT6</t>
-        </is>
-      </c>
-      <c r="C209" t="n">
-        <v>14.60375919</v>
-      </c>
-      <c r="D209" t="n">
-        <v>120.9891425</v>
+          <t>https://food.grab.com/ph/en/restaurant/926-grilled-food-house-thomas-pinpin-binondo-delivery/2-C3VDLNVXDATWJN</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>14.59842411</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>120.978721</t>
+        </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Uncle Bro's On-Line Pizza Hub - Campus Tambayan</t>
+          <t>Sweet Tooth - Legarda</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/chicky-restaurant-binondo-delivery/2-CZMHV2B3C3AVNX</t>
-        </is>
-      </c>
-      <c r="C210" t="n">
-        <v>14.60207581</v>
-      </c>
-      <c r="D210" t="n">
-        <v>120.9760154</v>
+          <t>https://food.grab.com/ph/en/restaurant/uncle-bro-s-on-line-pizza-hub-campus-tambayan-delivery/2-C2NDVUETREAZME</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>14.604006</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>120.987582</t>
+        </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Happy Thirstday - Sampaloc [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Kalsada Burger - UST [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/the-brewed-buddies-sm-manila-available-for-long-distance-delivery-delivery/2-C2TACP3FJ4N2EA</t>
-        </is>
-      </c>
-      <c r="C211" t="n">
-        <v>14.59025846859264</v>
-      </c>
-      <c r="D211" t="n">
-        <v>120.9829748981493</v>
+          <t>https://food.grab.com/ph/en/restaurant/happy-thirstday-sampaloc-available-for-long-distance-delivery-delivery/2-C2NXGFKDPEEACE</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>14.607373</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>120.987819</t>
+        </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Yoshimeatsu - UST U-Belt</t>
+          <t>K-Egg - Sampaloc Manila</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/aj-takoyaki-express-sampaloc-delivery/2-C2VTKEBWNRCXEJ</t>
-        </is>
-      </c>
-      <c r="C212" t="n">
-        <v>14.6014536031707</v>
-      </c>
-      <c r="D212" t="n">
-        <v>120.9909536287512</v>
+          <t>https://food.grab.com/ph/en/restaurant/tin-kyle-silog-silogan-gastambide-st-available-for-long-distance-delivery-delivery/2-C3AAR2CCLFKKHE</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>14.602665</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>120.990423</t>
+        </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Tin &amp; Kyle Silog Silogan - Gastambide St [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Joni's Grill - Delos Santos Street [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/tea-manila-sampaloc-delivery/2-C2CAEE63HBVVTT</t>
-        </is>
-      </c>
-      <c r="C213" t="n">
-        <v>14.60158156</v>
-      </c>
-      <c r="D213" t="n">
-        <v>120.9914059</v>
+          <t>https://food.grab.com/ph/en/restaurant/niknoks-eatery-gastambide-st-delivery/2-C2V1DCCZFCDYKA</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>14.6014</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>120.991008</t>
+        </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Sisig Station - St Thomas Square</t>
+          <t>Tio Paengs - Loyola [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/the-cake-project-ongpin-corner-delivery/2-C23DT76JFEXTCJ</t>
-        </is>
-      </c>
-      <c r="C214" t="n">
-        <v>14.59996229</v>
-      </c>
-      <c r="D214" t="n">
-        <v>120.97492218</v>
+          <t>https://food.grab.com/ph/en/restaurant/chicky-restaurant-binondo-delivery/2-CZMHV2B3C3AVNX</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>14.60207581</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>120.9760154</t>
+        </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>NikNoks Eatery - Gastambide St.</t>
+          <t>Infinitea - Laperal Apartment</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://food.grab.com/ph/en/restaurant/five-spice-express-ramada-by-wyndham-manila-central-delivery/PHGFSTI000001pi</t>
-        </is>
-      </c>
-      <c r="C215" t="n">
-        <v>14.600041</v>
-      </c>
-      <c r="D215" t="n">
-        <v>120.975008</v>
+          <t>https://food.grab.com/ph/en/restaurant/tea-manila-sampaloc-delivery/2-C2CAEE63HBVVTT</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>14.60158156</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>120.9914059</t>
+        </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Sarrapsa - Sampaloc [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Mariela Bakeshop - Bilibid Viejo Street</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -4302,17 +5158,21 @@
           <t>https://food.grab.com/ph/en/restaurant/boba-milk-tea-by-kowloon-house-legarda-available-for-long-distance-delivery-delivery/2-CY2EFBCDTNC1L2</t>
         </is>
       </c>
-      <c r="C216" t="n">
-        <v>14.5978789</v>
-      </c>
-      <c r="D216" t="n">
-        <v>120.98967024</v>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>14.5978789</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>120.98967024</t>
+        </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>It's Time Unliwings - Sampaloc</t>
+          <t>Vianney's - University Tower</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -4320,17 +5180,21 @@
           <t>https://food.grab.com/ph/en/restaurant/j-g-milktea-avenue-trinidad-street-delivery/2-C2L3PGEKJ3XFBA</t>
         </is>
       </c>
-      <c r="C217" t="n">
-        <v>14.60187885309855</v>
-      </c>
-      <c r="D217" t="n">
-        <v>120.9822999999761</v>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>14.601878853098555</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>120.98229999997614</t>
+        </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Nitro 7 Coffee and Tea Bar - L.A Village</t>
+          <t>Coffee Plus - Metro Suites Building [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -4344,7 +5208,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Urbanitea - P. Paredes St. [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>926 Grilled Food House - Thomas Pinpin Binondo</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -4358,7 +5222,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Chicky Restaurant - Binondo</t>
+          <t>Uncle Bro's On-Line Pizza Hub - Campus Tambayan</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -4372,7 +5236,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>The Brewed Buddies - SM Manila [Available for LONG-DISTANCE DELIVERY]</t>
+          <t>Happy Thirstday - Sampaloc [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -4386,7 +5250,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>AJ Takoyaki Express - Sampaloc</t>
+          <t>Tin &amp; Kyle Silog Silogan - Gastambide St [Available for LONG-DISTANCE DELIVERY]</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -4400,7 +5264,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Tea Manila - Sampaloc</t>
+          <t>NikNoks Eatery - Gastambide St.</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -4414,7 +5278,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>The Cake Project - Ongpin Corner</t>
+          <t>Chicky Restaurant - Binondo</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -4428,7 +5292,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Five Spice Express - Ramada by Wyndham Manila Central</t>
+          <t>Tea Manila - Sampaloc</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
